--- a/BackTest/2019-11-02 BackTest RNT.xlsx
+++ b/BackTest/2019-11-02 BackTest RNT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>71.4285714285715</v>
+      </c>
       <c r="L12" t="n">
         <v>14.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.9999999999999982</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>75.00000000000006</v>
+      </c>
       <c r="L13" t="n">
         <v>14.16</v>
       </c>
@@ -1011,7 +1015,9 @@
       <c r="J14" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>55.55555555555565</v>
+      </c>
       <c r="L14" t="n">
         <v>14.21</v>
       </c>
@@ -1064,7 +1070,9 @@
       <c r="J15" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>55.55555555555565</v>
+      </c>
       <c r="L15" t="n">
         <v>14.26</v>
       </c>
@@ -1115,7 +1123,9 @@
       <c r="J16" t="n">
         <v>1.199999999999998</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>60.00000000000008</v>
+      </c>
       <c r="L16" t="n">
         <v>14.32</v>
       </c>
@@ -1168,7 +1178,9 @@
       <c r="J17" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>60.00000000000008</v>
+      </c>
       <c r="L17" t="n">
         <v>14.39</v>
       </c>
@@ -1225,7 +1237,9 @@
       <c r="J18" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>55.55555555555565</v>
+      </c>
       <c r="L18" t="n">
         <v>14.45</v>
       </c>
@@ -1282,7 +1296,9 @@
       <c r="J19" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
       <c r="L19" t="n">
         <v>14.5</v>
       </c>
@@ -1339,7 +1355,9 @@
       <c r="J20" t="n">
         <v>1.399999999999997</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>14.5</v>
       </c>
@@ -1396,7 +1414,9 @@
       <c r="J21" t="n">
         <v>1.499999999999996</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>14.51</v>
       </c>
@@ -1455,7 +1475,9 @@
       <c r="J22" t="n">
         <v>1.499999999999996</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
       <c r="L22" t="n">
         <v>14.53</v>
       </c>
@@ -1515,7 +1537,7 @@
         <v>1.699999999999998</v>
       </c>
       <c r="K23" t="n">
-        <v>60.0000000000001</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L23" t="n">
         <v>14.56</v>
@@ -1576,7 +1598,7 @@
         <v>1.699999999999998</v>
       </c>
       <c r="K24" t="n">
-        <v>60.0000000000001</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L24" t="n">
         <v>14.6</v>
@@ -1637,7 +1659,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K25" t="n">
-        <v>62.50000000000009</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L25" t="n">
         <v>14.65</v>
@@ -1698,7 +1720,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K26" t="n">
-        <v>62.50000000000009</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L26" t="n">
         <v>14.69</v>
@@ -1747,7 +1769,7 @@
         <v>1.899999999999997</v>
       </c>
       <c r="K27" t="n">
-        <v>64.70588235294125</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L27" t="n">
         <v>14.73</v>
@@ -1796,7 +1818,7 @@
         <v>1.999999999999996</v>
       </c>
       <c r="K28" t="n">
-        <v>52.94117647058834</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L28" t="n">
         <v>14.76</v>
@@ -1845,7 +1867,7 @@
         <v>1.999999999999996</v>
       </c>
       <c r="K29" t="n">
-        <v>50.00000000000011</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L29" t="n">
         <v>14.79</v>
@@ -1894,7 +1916,7 @@
         <v>2.099999999999996</v>
       </c>
       <c r="K30" t="n">
-        <v>23.07692307692318</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L30" t="n">
         <v>14.82</v>
@@ -1943,7 +1965,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K31" t="n">
-        <v>28.57142857142867</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L31" t="n">
         <v>14.85</v>
@@ -1994,7 +2016,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K32" t="n">
-        <v>38.46153846153855</v>
+        <v>20</v>
       </c>
       <c r="L32" t="n">
         <v>14.88</v>
@@ -2045,7 +2067,7 @@
         <v>2.299999999999995</v>
       </c>
       <c r="K33" t="n">
-        <v>23.07692307692318</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>14.88</v>
@@ -2096,7 +2118,7 @@
         <v>2.299999999999995</v>
       </c>
       <c r="K34" t="n">
-        <v>33.33333333333343</v>
+        <v>-20</v>
       </c>
       <c r="L34" t="n">
         <v>14.88</v>
@@ -2147,7 +2169,7 @@
         <v>2.399999999999997</v>
       </c>
       <c r="K35" t="n">
-        <v>23.07692307692301</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L35" t="n">
         <v>14.86</v>
@@ -2198,7 +2220,7 @@
         <v>2.399999999999997</v>
       </c>
       <c r="K36" t="n">
-        <v>16.66666666666662</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L36" t="n">
         <v>14.84</v>
@@ -2249,7 +2271,7 @@
         <v>2.499999999999996</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L37" t="n">
         <v>14.8</v>
@@ -2300,7 +2322,7 @@
         <v>2.499999999999996</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L38" t="n">
         <v>14.77</v>
@@ -2351,7 +2373,7 @@
         <v>2.599999999999996</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.692307692307672</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L39" t="n">
         <v>14.73</v>
@@ -2402,7 +2424,7 @@
         <v>2.699999999999996</v>
       </c>
       <c r="K40" t="n">
-        <v>7.692307692307672</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L40" t="n">
         <v>14.71</v>
@@ -2453,7 +2475,7 @@
         <v>2.699999999999996</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L41" t="n">
         <v>14.68</v>
@@ -2504,7 +2526,7 @@
         <v>2.799999999999995</v>
       </c>
       <c r="K42" t="n">
-        <v>7.692307692307672</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L42" t="n">
         <v>14.65999999999999</v>
@@ -2555,7 +2577,7 @@
         <v>2.799999999999995</v>
       </c>
       <c r="K43" t="n">
-        <v>-9.090909090909239</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L43" t="n">
         <v>14.64999999999999</v>
@@ -2606,7 +2628,7 @@
         <v>2.999999999999995</v>
       </c>
       <c r="K44" t="n">
-        <v>-23.07692307692318</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L44" t="n">
         <v>14.61999999999999</v>
@@ -2657,7 +2679,7 @@
         <v>3.199999999999994</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.28571428571439</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>14.61999999999999</v>
@@ -2708,7 +2730,7 @@
         <v>3.299999999999995</v>
       </c>
       <c r="K46" t="n">
-        <v>-6.666666666666651</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L46" t="n">
         <v>14.62999999999999</v>
@@ -2759,7 +2781,7 @@
         <v>3.399999999999997</v>
       </c>
       <c r="K47" t="n">
-        <v>-20.00000000000005</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L47" t="n">
         <v>14.63999999999999</v>
@@ -2810,7 +2832,7 @@
         <v>3.399999999999997</v>
       </c>
       <c r="K48" t="n">
-        <v>-14.28571428571436</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L48" t="n">
         <v>14.64999999999999</v>
@@ -2861,7 +2883,7 @@
         <v>3.499999999999998</v>
       </c>
       <c r="K49" t="n">
-        <v>-6.666666666666635</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L49" t="n">
         <v>14.67999999999999</v>
@@ -2912,7 +2934,7 @@
         <v>3.499999999999998</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L50" t="n">
         <v>14.69999999999999</v>
@@ -2963,7 +2985,7 @@
         <v>3.499999999999998</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.69230769230765</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L51" t="n">
         <v>14.72</v>
@@ -3014,7 +3036,7 @@
         <v>3.499999999999998</v>
       </c>
       <c r="K52" t="n">
-        <v>-7.69230769230765</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L52" t="n">
         <v>14.73</v>
@@ -3065,7 +3087,7 @@
         <v>3.699999999999998</v>
       </c>
       <c r="K53" t="n">
-        <v>14.28571428571421</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L53" t="n">
         <v>14.76</v>
@@ -3116,7 +3138,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K54" t="n">
-        <v>19.9999999999999</v>
+        <v>66.66666666666637</v>
       </c>
       <c r="L54" t="n">
         <v>14.82</v>
@@ -3167,7 +3189,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K55" t="n">
-        <v>28.57142857142859</v>
+        <v>59.99999999999957</v>
       </c>
       <c r="L55" t="n">
         <v>14.86</v>
@@ -3218,7 +3240,7 @@
         <v>4.199999999999998</v>
       </c>
       <c r="K56" t="n">
-        <v>44.44444444444446</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>14.93</v>
@@ -3269,7 +3291,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K57" t="n">
-        <v>55.55555555555554</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>15.02</v>
@@ -3320,7 +3342,7 @@
         <v>4.599999999999996</v>
       </c>
       <c r="K58" t="n">
-        <v>33.33333333333339</v>
+        <v>45.45454545454554</v>
       </c>
       <c r="L58" t="n">
         <v>15.08</v>
@@ -3371,7 +3393,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K59" t="n">
-        <v>33.33333333333328</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L59" t="n">
         <v>15.12</v>
@@ -3422,7 +3444,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K60" t="n">
-        <v>29.99999999999995</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L60" t="n">
         <v>15.16</v>
@@ -3473,7 +3495,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K61" t="n">
-        <v>29.99999999999995</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L61" t="n">
         <v>15.19999999999999</v>
@@ -3524,7 +3546,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K62" t="n">
-        <v>26.31578947368418</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L62" t="n">
         <v>15.23999999999999</v>
@@ -3575,7 +3597,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K63" t="n">
-        <v>26.31578947368418</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L63" t="n">
         <v>15.25999999999999</v>
@@ -3626,7 +3648,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K64" t="n">
-        <v>41.17647058823518</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L64" t="n">
         <v>15.26999999999999</v>
@@ -3677,7 +3699,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>33.33333333333325</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L65" t="n">
         <v>15.27999999999999</v>
@@ -3728,7 +3750,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K66" t="n">
-        <v>19.9999999999999</v>
+        <v>-100</v>
       </c>
       <c r="L66" t="n">
         <v>15.23999999999999</v>
@@ -3779,7 +3801,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K67" t="n">
-        <v>28.57142857142859</v>
+        <v>-100</v>
       </c>
       <c r="L67" t="n">
         <v>15.18999999999999</v>
@@ -3830,7 +3852,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K68" t="n">
-        <v>28.57142857142859</v>
+        <v>-100</v>
       </c>
       <c r="L68" t="n">
         <v>15.16999999999999</v>
@@ -3881,7 +3903,7 @@
         <v>4.899999999999997</v>
       </c>
       <c r="K69" t="n">
-        <v>14.28571428571425</v>
+        <v>-100</v>
       </c>
       <c r="L69" t="n">
         <v>15.14999999999999</v>
@@ -3932,7 +3954,7 @@
         <v>4.999999999999996</v>
       </c>
       <c r="K70" t="n">
-        <v>19.99999999999995</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>15.13999999999999</v>
@@ -3983,7 +4005,7 @@
         <v>4.999999999999996</v>
       </c>
       <c r="K71" t="n">
-        <v>19.99999999999995</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>15.12999999999999</v>
@@ -4034,7 +4056,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K72" t="n">
-        <v>12.49999999999997</v>
+        <v>-50</v>
       </c>
       <c r="L72" t="n">
         <v>15.10999999999999</v>
@@ -4085,7 +4107,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L73" t="n">
         <v>15.08999999999999</v>
@@ -4136,7 +4158,7 @@
         <v>5.099999999999996</v>
       </c>
       <c r="K74" t="n">
-        <v>-7.692307692307672</v>
+        <v>-50</v>
       </c>
       <c r="L74" t="n">
         <v>15.06999999999999</v>
@@ -4187,7 +4209,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K75" t="n">
-        <v>-14.28571428571425</v>
+        <v>-50</v>
       </c>
       <c r="L75" t="n">
         <v>15.04</v>
@@ -4238,7 +4260,7 @@
         <v>5.299999999999995</v>
       </c>
       <c r="K76" t="n">
-        <v>-63.63636363636369</v>
+        <v>-60</v>
       </c>
       <c r="L76" t="n">
         <v>15.01</v>
@@ -4289,7 +4311,7 @@
         <v>5.499999999999995</v>
       </c>
       <c r="K77" t="n">
-        <v>-50.00000000000008</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L77" t="n">
         <v>15</v>
@@ -4340,7 +4362,7 @@
         <v>5.499999999999995</v>
       </c>
       <c r="K78" t="n">
-        <v>-33.33333333333346</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>14.99</v>
@@ -4493,7 +4515,7 @@
         <v>5.599999999999994</v>
       </c>
       <c r="K81" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L81" t="n">
         <v>14.94</v>
@@ -4544,7 +4566,7 @@
         <v>5.599999999999994</v>
       </c>
       <c r="K82" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L82" t="n">
         <v>14.93</v>
@@ -4595,7 +4617,7 @@
         <v>5.699999999999994</v>
       </c>
       <c r="K83" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>14.91</v>
@@ -4646,7 +4668,7 @@
         <v>5.699999999999994</v>
       </c>
       <c r="K84" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="L84" t="n">
         <v>14.89</v>
@@ -4697,7 +4719,7 @@
         <v>5.799999999999994</v>
       </c>
       <c r="K85" t="n">
-        <v>-27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L85" t="n">
         <v>14.89</v>
@@ -4748,7 +4770,7 @@
         <v>5.799999999999994</v>
       </c>
       <c r="K86" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>14.9</v>
@@ -4799,7 +4821,7 @@
         <v>5.799999999999994</v>
       </c>
       <c r="K87" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>14.89</v>
@@ -4850,7 +4872,7 @@
         <v>5.899999999999993</v>
       </c>
       <c r="K88" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>14.89</v>
@@ -4901,7 +4923,7 @@
         <v>5.899999999999993</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>14.9</v>
@@ -4952,7 +4974,7 @@
         <v>5.999999999999993</v>
       </c>
       <c r="K90" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>14.9</v>
@@ -5003,7 +5025,7 @@
         <v>6.099999999999993</v>
       </c>
       <c r="K91" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L91" t="n">
         <v>14.91</v>
@@ -5054,7 +5076,7 @@
         <v>6.299999999999992</v>
       </c>
       <c r="K92" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>14.9</v>
@@ -5105,7 +5127,7 @@
         <v>6.399999999999991</v>
       </c>
       <c r="K93" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L93" t="n">
         <v>14.91</v>
@@ -5156,7 +5178,7 @@
         <v>6.399999999999991</v>
       </c>
       <c r="K94" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>14.92</v>
@@ -5207,7 +5229,7 @@
         <v>6.499999999999991</v>
       </c>
       <c r="K95" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L95" t="n">
         <v>14.91</v>
@@ -5258,7 +5280,7 @@
         <v>6.499999999999991</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L96" t="n">
         <v>14.9</v>
@@ -5309,7 +5331,7 @@
         <v>6.599999999999993</v>
       </c>
       <c r="K97" t="n">
-        <v>-27.27272727272739</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L97" t="n">
         <v>14.88</v>
@@ -5360,7 +5382,7 @@
         <v>6.699999999999994</v>
       </c>
       <c r="K98" t="n">
-        <v>-16.66666666666662</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L98" t="n">
         <v>14.86</v>
@@ -5411,7 +5433,7 @@
         <v>6.799999999999995</v>
       </c>
       <c r="K99" t="n">
-        <v>-16.66666666666674</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L99" t="n">
         <v>14.83</v>
@@ -5462,7 +5484,7 @@
         <v>6.999999999999996</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L100" t="n">
         <v>14.83</v>
@@ -5513,7 +5535,7 @@
         <v>6.999999999999996</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L101" t="n">
         <v>14.82</v>
@@ -5615,7 +5637,7 @@
         <v>7.099999999999996</v>
       </c>
       <c r="K103" t="n">
-        <v>14.28571428571421</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L103" t="n">
         <v>14.84</v>
@@ -5666,7 +5688,7 @@
         <v>7.199999999999996</v>
       </c>
       <c r="K104" t="n">
-        <v>6.666666666666635</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L104" t="n">
         <v>14.84</v>
@@ -5717,7 +5739,7 @@
         <v>7.299999999999995</v>
       </c>
       <c r="K105" t="n">
-        <v>6.666666666666635</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L105" t="n">
         <v>14.86</v>
@@ -5768,7 +5790,7 @@
         <v>7.299999999999995</v>
       </c>
       <c r="K106" t="n">
-        <v>6.666666666666635</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L106" t="n">
         <v>14.88</v>
@@ -5819,7 +5841,7 @@
         <v>7.399999999999995</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L107" t="n">
         <v>14.9</v>
@@ -5870,7 +5892,7 @@
         <v>7.399999999999995</v>
       </c>
       <c r="K108" t="n">
-        <v>-6.666666666666635</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L108" t="n">
         <v>14.91</v>
@@ -5921,7 +5943,7 @@
         <v>7.499999999999995</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L109" t="n">
         <v>14.94</v>
@@ -6023,7 +6045,7 @@
         <v>7.599999999999994</v>
       </c>
       <c r="K111" t="n">
-        <v>-6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>14.94</v>
@@ -6074,7 +6096,7 @@
         <v>7.699999999999994</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>14.93</v>
@@ -6125,7 +6147,7 @@
         <v>7.699999999999994</v>
       </c>
       <c r="K113" t="n">
-        <v>-7.69230769230765</v>
+        <v>-20</v>
       </c>
       <c r="L113" t="n">
         <v>14.91</v>
@@ -6176,7 +6198,7 @@
         <v>7.799999999999995</v>
       </c>
       <c r="K114" t="n">
-        <v>-14.28571428571432</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L114" t="n">
         <v>14.89</v>
@@ -6227,7 +6249,7 @@
         <v>7.899999999999995</v>
       </c>
       <c r="K115" t="n">
-        <v>-14.28571428571432</v>
+        <v>-66.66666666666676</v>
       </c>
       <c r="L115" t="n">
         <v>14.85</v>
@@ -6278,7 +6300,7 @@
         <v>7.899999999999995</v>
       </c>
       <c r="K116" t="n">
-        <v>-14.28571428571432</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L116" t="n">
         <v>14.81</v>
@@ -6329,7 +6351,7 @@
         <v>7.999999999999995</v>
       </c>
       <c r="K117" t="n">
-        <v>-14.28571428571421</v>
+        <v>-66.66666666666676</v>
       </c>
       <c r="L117" t="n">
         <v>14.77</v>
@@ -6380,7 +6402,7 @@
         <v>7.999999999999995</v>
       </c>
       <c r="K118" t="n">
-        <v>-23.07692307692312</v>
+        <v>-100</v>
       </c>
       <c r="L118" t="n">
         <v>14.73</v>
@@ -6431,7 +6453,7 @@
         <v>8.099999999999994</v>
       </c>
       <c r="K119" t="n">
-        <v>-23.07692307692301</v>
+        <v>-100</v>
       </c>
       <c r="L119" t="n">
         <v>14.67</v>
@@ -6482,7 +6504,7 @@
         <v>8.399999999999993</v>
       </c>
       <c r="K120" t="n">
-        <v>-14.28571428571439</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L120" t="n">
         <v>14.65</v>
@@ -6533,7 +6555,7 @@
         <v>8.599999999999993</v>
       </c>
       <c r="K121" t="n">
-        <v>-25.00000000000008</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L121" t="n">
         <v>14.61</v>
@@ -6584,7 +6606,7 @@
         <v>8.799999999999992</v>
       </c>
       <c r="K122" t="n">
-        <v>-11.1111111111112</v>
+        <v>-9.090909090909239</v>
       </c>
       <c r="L122" t="n">
         <v>14.59999999999999</v>
@@ -6635,7 +6657,7 @@
         <v>8.999999999999991</v>
       </c>
       <c r="K123" t="n">
-        <v>-26.31578947368428</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L123" t="n">
         <v>14.56999999999999</v>
@@ -6686,7 +6708,7 @@
         <v>9.19999999999999</v>
       </c>
       <c r="K124" t="n">
-        <v>-10.00000000000008</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L124" t="n">
         <v>14.56999999999999</v>
@@ -6737,7 +6759,7 @@
         <v>9.29999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>-20.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>14.56999999999999</v>
@@ -6788,7 +6810,7 @@
         <v>9.39999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>-14.28571428571436</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L126" t="n">
         <v>14.57999999999999</v>
@@ -6839,7 +6861,7 @@
         <v>9.39999999999999</v>
       </c>
       <c r="K127" t="n">
-        <v>-10.00000000000008</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L127" t="n">
         <v>14.59999999999999</v>
@@ -6890,7 +6912,7 @@
         <v>9.499999999999989</v>
       </c>
       <c r="K128" t="n">
-        <v>-14.28571428571436</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L128" t="n">
         <v>14.60999999999999</v>
@@ -6941,7 +6963,7 @@
         <v>9.599999999999989</v>
       </c>
       <c r="K129" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>14.63999999999999</v>
@@ -6992,7 +7014,7 @@
         <v>9.599999999999989</v>
       </c>
       <c r="K130" t="n">
-        <v>-10.00000000000008</v>
+        <v>20</v>
       </c>
       <c r="L130" t="n">
         <v>14.63999999999999</v>
@@ -7043,7 +7065,7 @@
         <v>9.799999999999988</v>
       </c>
       <c r="K131" t="n">
-        <v>-18.18181818181825</v>
+        <v>-20</v>
       </c>
       <c r="L131" t="n">
         <v>14.63999999999999</v>
@@ -7094,7 +7116,7 @@
         <v>9.799999999999988</v>
       </c>
       <c r="K132" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>14.61999999999999</v>
@@ -7145,7 +7167,7 @@
         <v>9.999999999999988</v>
       </c>
       <c r="K133" t="n">
-        <v>-4.347826086956596</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>14.63999999999999</v>
@@ -7196,7 +7218,7 @@
         <v>10.29999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="L134" t="n">
         <v>14.60999999999999</v>
@@ -7247,7 +7269,7 @@
         <v>10.39999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="L135" t="n">
         <v>14.59999999999999</v>
@@ -7298,7 +7320,7 @@
         <v>10.39999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="L136" t="n">
         <v>14.57999999999999</v>
@@ -7349,7 +7371,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L137" t="n">
         <v>14.57999999999999</v>
@@ -7400,7 +7422,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>14.58999999999999</v>
@@ -7451,7 +7473,7 @@
         <v>10.69999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L139" t="n">
         <v>14.57999999999999</v>
@@ -7502,7 +7524,7 @@
         <v>10.79999999999998</v>
       </c>
       <c r="K140" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>14.55999999999999</v>
@@ -7655,7 +7677,7 @@
         <v>11.19999999999998</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L143" t="n">
         <v>14.55999999999999</v>
@@ -7706,7 +7728,7 @@
         <v>11.29999999999998</v>
       </c>
       <c r="K144" t="n">
-        <v>-4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L144" t="n">
         <v>14.57999999999999</v>
@@ -7757,7 +7779,7 @@
         <v>11.29999999999998</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L145" t="n">
         <v>14.58999999999999</v>
@@ -7808,7 +7830,7 @@
         <v>11.39999999999998</v>
       </c>
       <c r="K146" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="L146" t="n">
         <v>14.58999999999999</v>
@@ -7859,7 +7881,7 @@
         <v>11.49999999999998</v>
       </c>
       <c r="K147" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L147" t="n">
         <v>14.57999999999999</v>
@@ -7973,7 +7995,7 @@
         <v>11.49999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>-5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L149" t="n">
         <v>14.56999999999999</v>
@@ -8032,7 +8054,7 @@
         <v>11.49999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>-5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L150" t="n">
         <v>14.57999999999999</v>
@@ -8091,7 +8113,7 @@
         <v>11.59999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>14.57999999999999</v>
@@ -8209,7 +8231,7 @@
         <v>11.69999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L153" t="n">
         <v>14.54999999999999</v>
@@ -8268,7 +8290,7 @@
         <v>11.79999999999998</v>
       </c>
       <c r="K154" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L154" t="n">
         <v>14.54</v>
@@ -8386,7 +8408,7 @@
         <v>11.89999999999998</v>
       </c>
       <c r="K156" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L156" t="n">
         <v>14.52</v>
@@ -8443,7 +8465,7 @@
         <v>11.99999999999998</v>
       </c>
       <c r="K157" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L157" t="n">
         <v>14.51</v>
@@ -8502,7 +8524,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K158" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>14.49</v>
@@ -8563,7 +8585,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K159" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>14.47</v>
@@ -8624,7 +8646,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K160" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L160" t="n">
         <v>14.45</v>
@@ -8685,7 +8707,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K161" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L161" t="n">
         <v>14.44</v>
@@ -8746,7 +8768,7 @@
         <v>12.19999999999998</v>
       </c>
       <c r="K162" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L162" t="n">
         <v>14.42</v>
@@ -8805,7 +8827,7 @@
         <v>12.19999999999998</v>
       </c>
       <c r="K163" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L163" t="n">
         <v>14.41</v>
@@ -8919,7 +8941,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K165" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L165" t="n">
         <v>14.4</v>
@@ -8976,7 +8998,7 @@
         <v>12.49999999999998</v>
       </c>
       <c r="K166" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L166" t="n">
         <v>14.42</v>
@@ -9033,7 +9055,7 @@
         <v>12.59999999999998</v>
       </c>
       <c r="K167" t="n">
-        <v>9.090909090909092</v>
+        <v>60</v>
       </c>
       <c r="L167" t="n">
         <v>14.44</v>
@@ -9090,7 +9112,7 @@
         <v>12.69999999999998</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>14.46</v>
@@ -9147,7 +9169,7 @@
         <v>12.89999999999998</v>
       </c>
       <c r="K169" t="n">
-        <v>14.28571428571439</v>
+        <v>50.00000000000011</v>
       </c>
       <c r="L169" t="n">
         <v>14.5</v>
@@ -9204,7 +9226,7 @@
         <v>12.99999999999998</v>
       </c>
       <c r="K170" t="n">
-        <v>6.666666666666651</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L170" t="n">
         <v>14.53</v>
@@ -9261,7 +9283,7 @@
         <v>13.09999999999998</v>
       </c>
       <c r="K171" t="n">
-        <v>6.666666666666651</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L171" t="n">
         <v>14.55</v>
@@ -9318,7 +9340,7 @@
         <v>13.19999999999998</v>
       </c>
       <c r="K172" t="n">
-        <v>12.49999999999997</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L172" t="n">
         <v>14.58999999999999</v>
@@ -9375,7 +9397,7 @@
         <v>13.39999999999998</v>
       </c>
       <c r="K173" t="n">
-        <v>5.882352941176458</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L173" t="n">
         <v>14.60999999999999</v>
@@ -9489,7 +9511,7 @@
         <v>13.39999999999998</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L175" t="n">
         <v>14.61999999999999</v>
@@ -9540,7 +9562,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K176" t="n">
-        <v>-5.882352941176458</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L176" t="n">
         <v>14.58999999999999</v>
@@ -9591,7 +9613,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K177" t="n">
-        <v>-12.49999999999997</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L177" t="n">
         <v>14.55</v>
@@ -9642,7 +9664,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K178" t="n">
-        <v>-6.666666666666651</v>
+        <v>-71.4285714285715</v>
       </c>
       <c r="L178" t="n">
         <v>14.52</v>
@@ -9693,7 +9715,7 @@
         <v>13.79999999999998</v>
       </c>
       <c r="K179" t="n">
-        <v>5.882352941176458</v>
+        <v>-25</v>
       </c>
       <c r="L179" t="n">
         <v>14.49</v>
@@ -9744,7 +9766,7 @@
         <v>13.79999999999998</v>
       </c>
       <c r="K180" t="n">
-        <v>5.882352941176458</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L180" t="n">
         <v>14.47</v>
@@ -9795,7 +9817,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L181" t="n">
         <v>14.45</v>
@@ -9846,7 +9868,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K182" t="n">
-        <v>5.882352941176458</v>
+        <v>-20</v>
       </c>
       <c r="L182" t="n">
         <v>14.42</v>
@@ -9897,7 +9919,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K183" t="n">
-        <v>5.882352941176458</v>
+        <v>-20</v>
       </c>
       <c r="L183" t="n">
         <v>14.41</v>
@@ -9948,7 +9970,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L184" t="n">
         <v>14.4</v>
@@ -9999,7 +10021,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K185" t="n">
-        <v>-6.666666666666651</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>14.39</v>
@@ -10050,7 +10072,7 @@
         <v>13.99999999999998</v>
       </c>
       <c r="K186" t="n">
-        <v>-6.666666666666651</v>
+        <v>50</v>
       </c>
       <c r="L186" t="n">
         <v>14.41</v>
@@ -10101,7 +10123,7 @@
         <v>13.99999999999998</v>
       </c>
       <c r="K187" t="n">
-        <v>-14.28571428571425</v>
+        <v>50</v>
       </c>
       <c r="L187" t="n">
         <v>14.43</v>
@@ -10152,7 +10174,7 @@
         <v>14.09999999999998</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>14.46</v>
@@ -10203,7 +10225,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>-23.07692307692318</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>14.46</v>
@@ -10254,7 +10276,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K190" t="n">
-        <v>-16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>14.46</v>
@@ -10305,7 +10327,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>14.47</v>
@@ -10356,7 +10378,7 @@
         <v>14.39999999999998</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L192" t="n">
         <v>14.5</v>
@@ -10407,7 +10429,7 @@
         <v>14.39999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L193" t="n">
         <v>14.53</v>
@@ -10458,7 +10480,7 @@
         <v>14.59999999999997</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L194" t="n">
         <v>14.54</v>
@@ -10560,7 +10582,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K196" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L196" t="n">
         <v>14.55999999999999</v>
@@ -10611,7 +10633,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K197" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>14.56999999999999</v>
@@ -10662,7 +10684,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K198" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L198" t="n">
         <v>14.56999999999999</v>
@@ -10713,7 +10735,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K199" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L199" t="n">
         <v>14.57999999999999</v>
@@ -10764,7 +10786,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K200" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L200" t="n">
         <v>14.58999999999999</v>
@@ -10815,7 +10837,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K201" t="n">
-        <v>25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L201" t="n">
         <v>14.59999999999999</v>
@@ -10866,7 +10888,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K202" t="n">
-        <v>25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>14.58999999999999</v>
@@ -10917,7 +10939,7 @@
         <v>14.79999999999997</v>
       </c>
       <c r="K203" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L203" t="n">
         <v>14.58999999999999</v>
@@ -10968,7 +10990,7 @@
         <v>14.89999999999998</v>
       </c>
       <c r="K204" t="n">
-        <v>40.00000000000011</v>
+        <v>100</v>
       </c>
       <c r="L204" t="n">
         <v>14.61999999999999</v>
@@ -11019,7 +11041,7 @@
         <v>14.89999999999998</v>
       </c>
       <c r="K205" t="n">
-        <v>40.00000000000011</v>
+        <v>100</v>
       </c>
       <c r="L205" t="n">
         <v>14.65</v>
@@ -11070,7 +11092,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K206" t="n">
-        <v>40.00000000000011</v>
+        <v>100</v>
       </c>
       <c r="L206" t="n">
         <v>14.68</v>
@@ -11121,7 +11143,7 @@
         <v>15.19999999999997</v>
       </c>
       <c r="K207" t="n">
-        <v>50.00000000000008</v>
+        <v>100</v>
       </c>
       <c r="L207" t="n">
         <v>14.73</v>
@@ -11172,7 +11194,7 @@
         <v>15.19999999999997</v>
       </c>
       <c r="K208" t="n">
-        <v>45.45454545454554</v>
+        <v>100</v>
       </c>
       <c r="L208" t="n">
         <v>14.78</v>
@@ -11223,7 +11245,7 @@
         <v>15.39999999999997</v>
       </c>
       <c r="K209" t="n">
-        <v>33.33333333333343</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L209" t="n">
         <v>14.81</v>
@@ -11274,7 +11296,7 @@
         <v>15.49999999999997</v>
       </c>
       <c r="K210" t="n">
-        <v>38.46153846153855</v>
+        <v>50.00000000000011</v>
       </c>
       <c r="L210" t="n">
         <v>14.85</v>
@@ -11325,7 +11347,7 @@
         <v>15.59999999999997</v>
       </c>
       <c r="K211" t="n">
-        <v>42.85714285714293</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L211" t="n">
         <v>14.9</v>
@@ -11376,7 +11398,7 @@
         <v>15.69999999999997</v>
       </c>
       <c r="K212" t="n">
-        <v>38.46153846153855</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L212" t="n">
         <v>14.96</v>
@@ -11427,7 +11449,7 @@
         <v>15.69999999999997</v>
       </c>
       <c r="K213" t="n">
-        <v>38.46153846153855</v>
+        <v>50</v>
       </c>
       <c r="L213" t="n">
         <v>15.01</v>
@@ -11478,7 +11500,7 @@
         <v>15.79999999999997</v>
       </c>
       <c r="K214" t="n">
-        <v>50.00000000000008</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>15.04</v>
@@ -11529,7 +11551,7 @@
         <v>15.89999999999997</v>
       </c>
       <c r="K215" t="n">
-        <v>53.84615384615391</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>15.07999999999999</v>
@@ -11580,7 +11602,7 @@
         <v>15.89999999999997</v>
       </c>
       <c r="K216" t="n">
-        <v>50.00000000000008</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L216" t="n">
         <v>15.10999999999999</v>
@@ -11631,7 +11653,7 @@
         <v>15.89999999999997</v>
       </c>
       <c r="K217" t="n">
-        <v>50.00000000000008</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L217" t="n">
         <v>15.11999999999999</v>
@@ -11682,7 +11704,7 @@
         <v>15.89999999999997</v>
       </c>
       <c r="K218" t="n">
-        <v>50.00000000000008</v>
+        <v>60</v>
       </c>
       <c r="L218" t="n">
         <v>15.12999999999999</v>
@@ -11733,7 +11755,7 @@
         <v>15.89999999999997</v>
       </c>
       <c r="K219" t="n">
-        <v>50.00000000000008</v>
+        <v>50</v>
       </c>
       <c r="L219" t="n">
         <v>15.15999999999999</v>
@@ -11784,7 +11806,7 @@
         <v>16.09999999999997</v>
       </c>
       <c r="K220" t="n">
-        <v>57.14285714285725</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L220" t="n">
         <v>15.19999999999999</v>
@@ -11835,7 +11857,7 @@
         <v>16.29999999999997</v>
       </c>
       <c r="K221" t="n">
-        <v>62.50000000000009</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L221" t="n">
         <v>15.24999999999999</v>
@@ -11886,7 +11908,7 @@
         <v>16.69999999999997</v>
       </c>
       <c r="K222" t="n">
-        <v>70.00000000000001</v>
+        <v>79.99999999999993</v>
       </c>
       <c r="L222" t="n">
         <v>15.32999999999999</v>
@@ -11937,7 +11959,7 @@
         <v>16.89999999999997</v>
       </c>
       <c r="K223" t="n">
-        <v>52.38095238095246</v>
+        <v>63.63636363636365</v>
       </c>
       <c r="L223" t="n">
         <v>15.38999999999999</v>
@@ -11988,7 +12010,7 @@
         <v>16.99999999999998</v>
       </c>
       <c r="K224" t="n">
-        <v>42.8571428571428</v>
+        <v>45.45454545454532</v>
       </c>
       <c r="L224" t="n">
         <v>15.44999999999999</v>
@@ -12039,7 +12061,7 @@
         <v>17.09999999999997</v>
       </c>
       <c r="K225" t="n">
-        <v>36.36363636363635</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L225" t="n">
         <v>15.48999999999999</v>
@@ -12141,7 +12163,7 @@
         <v>17.19999999999997</v>
       </c>
       <c r="K227" t="n">
-        <v>29.99999999999998</v>
+        <v>38.46153846153839</v>
       </c>
       <c r="L227" t="n">
         <v>15.57999999999999</v>
@@ -12192,7 +12214,7 @@
         <v>17.19999999999997</v>
       </c>
       <c r="K228" t="n">
-        <v>29.99999999999998</v>
+        <v>38.46153846153839</v>
       </c>
       <c r="L228" t="n">
         <v>15.62999999999999</v>
@@ -12243,7 +12265,7 @@
         <v>17.19999999999997</v>
       </c>
       <c r="K229" t="n">
-        <v>44.44444444444437</v>
+        <v>27.27272727272714</v>
       </c>
       <c r="L229" t="n">
         <v>15.67999999999999</v>
@@ -12294,7 +12316,7 @@
         <v>17.49999999999997</v>
       </c>
       <c r="K230" t="n">
-        <v>20.00000000000004</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L230" t="n">
         <v>15.67999999999999</v>
@@ -12345,7 +12367,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K231" t="n">
-        <v>23.80952380952383</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L231" t="n">
         <v>15.67999999999999</v>
@@ -12396,7 +12418,7 @@
         <v>17.79999999999997</v>
       </c>
       <c r="K232" t="n">
-        <v>14.28571428571435</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L232" t="n">
         <v>15.62999999999999</v>
@@ -12447,7 +12469,7 @@
         <v>17.79999999999997</v>
       </c>
       <c r="K233" t="n">
-        <v>14.28571428571435</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L233" t="n">
         <v>15.59999999999999</v>
@@ -12498,7 +12520,7 @@
         <v>17.79999999999997</v>
       </c>
       <c r="K234" t="n">
-        <v>20.00000000000005</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L234" t="n">
         <v>15.57999999999999</v>
@@ -12549,7 +12571,7 @@
         <v>17.89999999999997</v>
       </c>
       <c r="K235" t="n">
-        <v>20.00000000000004</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>15.57999999999999</v>
@@ -12600,7 +12622,7 @@
         <v>17.99999999999997</v>
       </c>
       <c r="K236" t="n">
-        <v>14.28571428571432</v>
+        <v>-25</v>
       </c>
       <c r="L236" t="n">
         <v>15.56999999999999</v>
@@ -12651,7 +12673,7 @@
         <v>18.09999999999997</v>
       </c>
       <c r="K237" t="n">
-        <v>18.18181818181819</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L237" t="n">
         <v>15.55999999999999</v>
@@ -12702,7 +12724,7 @@
         <v>18.09999999999997</v>
       </c>
       <c r="K238" t="n">
-        <v>18.18181818181819</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L238" t="n">
         <v>15.54999999999999</v>
@@ -12753,7 +12775,7 @@
         <v>18.09999999999997</v>
       </c>
       <c r="K239" t="n">
-        <v>18.18181818181819</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L239" t="n">
         <v>15.54</v>
@@ -12804,7 +12826,7 @@
         <v>18.09999999999997</v>
       </c>
       <c r="K240" t="n">
-        <v>9.999999999999964</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>15.55999999999999</v>
@@ -12855,7 +12877,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K241" t="n">
-        <v>5.263157894736818</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L241" t="n">
         <v>15.56999999999999</v>
@@ -12906,7 +12928,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K242" t="n">
-        <v>-20.00000000000005</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L242" t="n">
         <v>15.58999999999999</v>
@@ -12957,7 +12979,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K243" t="n">
-        <v>-7.692307692307796</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L243" t="n">
         <v>15.60999999999999</v>
@@ -13008,7 +13030,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L244" t="n">
         <v>15.62999999999999</v>
@@ -13059,7 +13081,7 @@
         <v>18.29999999999998</v>
       </c>
       <c r="K245" t="n">
-        <v>16.66666666666671</v>
+        <v>99.99999999999881</v>
       </c>
       <c r="L245" t="n">
         <v>15.64999999999999</v>
@@ -13110,7 +13132,7 @@
         <v>18.29999999999998</v>
       </c>
       <c r="K246" t="n">
-        <v>16.66666666666671</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L246" t="n">
         <v>15.67999999999999</v>
@@ -13161,7 +13183,7 @@
         <v>18.39999999999998</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L247" t="n">
         <v>15.68999999999999</v>
@@ -13212,7 +13234,7 @@
         <v>18.49999999999998</v>
       </c>
       <c r="K248" t="n">
-        <v>7.692307692307776</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L248" t="n">
         <v>15.70999999999999</v>
@@ -13263,7 +13285,7 @@
         <v>18.49999999999998</v>
       </c>
       <c r="K249" t="n">
-        <v>7.692307692307776</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L249" t="n">
         <v>15.73</v>
@@ -13314,7 +13336,7 @@
         <v>18.49999999999998</v>
       </c>
       <c r="K250" t="n">
-        <v>39.99999999999975</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L250" t="n">
         <v>15.75</v>
@@ -13365,7 +13387,7 @@
         <v>18.69999999999998</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L251" t="n">
         <v>15.74</v>
@@ -13416,7 +13438,7 @@
         <v>18.79999999999998</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L252" t="n">
         <v>15.72</v>
@@ -13467,7 +13489,7 @@
         <v>18.89999999999998</v>
       </c>
       <c r="K253" t="n">
-        <v>9.090909090908928</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L253" t="n">
         <v>15.71</v>
@@ -13518,7 +13540,7 @@
         <v>18.89999999999998</v>
       </c>
       <c r="K254" t="n">
-        <v>9.090909090908928</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L254" t="n">
         <v>15.7</v>
@@ -13569,7 +13591,7 @@
         <v>18.99999999999999</v>
       </c>
       <c r="K255" t="n">
-        <v>-9.090909090908928</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L255" t="n">
         <v>15.67</v>
@@ -13620,7 +13642,7 @@
         <v>18.99999999999999</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L256" t="n">
         <v>15.64</v>
@@ -13671,7 +13693,7 @@
         <v>18.99999999999999</v>
       </c>
       <c r="K257" t="n">
-        <v>-11.11111111111091</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L257" t="n">
         <v>15.62</v>
@@ -13722,7 +13744,7 @@
         <v>18.99999999999999</v>
       </c>
       <c r="K258" t="n">
-        <v>-11.11111111111091</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L258" t="n">
         <v>15.59</v>
@@ -13773,7 +13795,7 @@
         <v>19.09999999999999</v>
       </c>
       <c r="K259" t="n">
-        <v>-19.99999999999964</v>
+        <v>-66.66666666666578</v>
       </c>
       <c r="L259" t="n">
         <v>15.55</v>
@@ -13824,7 +13846,7 @@
         <v>19.09999999999999</v>
       </c>
       <c r="K260" t="n">
-        <v>-19.99999999999964</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L260" t="n">
         <v>15.51</v>
@@ -13926,7 +13948,7 @@
         <v>19.19999999999999</v>
       </c>
       <c r="K262" t="n">
-        <v>-39.99999999999929</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L262" t="n">
         <v>15.47</v>
@@ -13977,7 +13999,7 @@
         <v>19.29999999999999</v>
       </c>
       <c r="K263" t="n">
-        <v>-27.27272727272679</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L263" t="n">
         <v>15.45</v>
@@ -14028,7 +14050,7 @@
         <v>19.39999999999999</v>
       </c>
       <c r="K264" t="n">
-        <v>-33.33333333333275</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L264" t="n">
         <v>15.42</v>
@@ -14079,7 +14101,7 @@
         <v>19.49999999999999</v>
       </c>
       <c r="K265" t="n">
-        <v>-33.33333333333289</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L265" t="n">
         <v>15.41</v>
@@ -14130,7 +14152,7 @@
         <v>19.49999999999999</v>
       </c>
       <c r="K266" t="n">
-        <v>-33.33333333333289</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L266" t="n">
         <v>15.4</v>
@@ -14232,7 +14254,7 @@
         <v>19.59999999999999</v>
       </c>
       <c r="K268" t="n">
-        <v>-45.45454545454481</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L268" t="n">
         <v>15.36</v>
@@ -14283,7 +14305,7 @@
         <v>19.7</v>
       </c>
       <c r="K269" t="n">
-        <v>-33.33333333333289</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>15.36</v>
@@ -14334,7 +14356,7 @@
         <v>19.8</v>
       </c>
       <c r="K270" t="n">
-        <v>-38.46153846153791</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L270" t="n">
         <v>15.35</v>
@@ -14385,7 +14407,7 @@
         <v>19.8</v>
       </c>
       <c r="K271" t="n">
-        <v>-27.27272727272679</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>15.34000000000001</v>
@@ -14487,7 +14509,7 @@
         <v>19.8</v>
       </c>
       <c r="K273" t="n">
-        <v>-33.33333333333275</v>
+        <v>0</v>
       </c>
       <c r="L273" t="n">
         <v>15.33000000000001</v>
@@ -14538,7 +14560,7 @@
         <v>19.9</v>
       </c>
       <c r="K274" t="n">
-        <v>-39.99999999999947</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L274" t="n">
         <v>15.32</v>
@@ -14589,7 +14611,7 @@
         <v>19.9</v>
       </c>
       <c r="K275" t="n">
-        <v>-33.33333333333294</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L275" t="n">
         <v>15.3</v>
@@ -14640,7 +14662,7 @@
         <v>20</v>
       </c>
       <c r="K276" t="n">
-        <v>-19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>15.29</v>
@@ -14691,7 +14713,7 @@
         <v>20</v>
       </c>
       <c r="K277" t="n">
-        <v>-19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>15.29</v>
@@ -14742,7 +14764,7 @@
         <v>20.1</v>
       </c>
       <c r="K278" t="n">
-        <v>-9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>15.3</v>
@@ -14793,7 +14815,7 @@
         <v>20.1</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L279" t="n">
         <v>15.3</v>
@@ -14844,7 +14866,7 @@
         <v>20.2</v>
       </c>
       <c r="K280" t="n">
-        <v>-9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>15.3</v>
@@ -14895,7 +14917,7 @@
         <v>20.3</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L281" t="n">
         <v>15.31</v>
@@ -14946,7 +14968,7 @@
         <v>20.3</v>
       </c>
       <c r="K282" t="n">
-        <v>9.090909090908928</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L282" t="n">
         <v>15.32</v>
@@ -14997,7 +15019,7 @@
         <v>20.3</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L283" t="n">
         <v>15.33</v>
@@ -15048,7 +15070,7 @@
         <v>20.40000000000001</v>
       </c>
       <c r="K284" t="n">
-        <v>19.99999999999964</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L284" t="n">
         <v>15.36</v>
@@ -15099,7 +15121,7 @@
         <v>20.6</v>
       </c>
       <c r="K285" t="n">
-        <v>-9.090909090908958</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
         <v>15.37</v>
@@ -15150,7 +15172,7 @@
         <v>20.7</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L286" t="n">
         <v>15.38</v>
@@ -15201,7 +15223,7 @@
         <v>20.8</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L287" t="n">
         <v>15.38</v>
@@ -15252,7 +15274,7 @@
         <v>20.90000000000001</v>
       </c>
       <c r="K288" t="n">
-        <v>7.692307692307598</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>15.38</v>
@@ -15303,7 +15325,7 @@
         <v>20.90000000000001</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L289" t="n">
         <v>15.38</v>
@@ -15354,7 +15376,7 @@
         <v>20.90000000000001</v>
       </c>
       <c r="K290" t="n">
-        <v>9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>15.39</v>
@@ -15405,7 +15427,7 @@
         <v>20.90000000000001</v>
       </c>
       <c r="K291" t="n">
-        <v>9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>15.39</v>
@@ -15456,7 +15478,7 @@
         <v>21.00000000000001</v>
       </c>
       <c r="K292" t="n">
-        <v>16.66666666666647</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L292" t="n">
         <v>15.4</v>
@@ -15507,7 +15529,7 @@
         <v>21.00000000000001</v>
       </c>
       <c r="K293" t="n">
-        <v>16.66666666666647</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>15.41</v>
@@ -15558,7 +15580,7 @@
         <v>21.10000000000001</v>
       </c>
       <c r="K294" t="n">
-        <v>16.66666666666662</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L294" t="n">
         <v>15.4</v>
@@ -15609,7 +15631,7 @@
         <v>21.10000000000001</v>
       </c>
       <c r="K295" t="n">
-        <v>16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
         <v>15.41</v>
@@ -15660,7 +15682,7 @@
         <v>21.20000000000001</v>
       </c>
       <c r="K296" t="n">
-        <v>16.66666666666647</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L296" t="n">
         <v>15.42</v>
@@ -15711,7 +15733,7 @@
         <v>21.20000000000001</v>
       </c>
       <c r="K297" t="n">
-        <v>16.66666666666647</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L297" t="n">
         <v>15.44</v>
@@ -15762,7 +15784,7 @@
         <v>21.20000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>9.090909090908989</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L298" t="n">
         <v>15.45</v>
@@ -15813,7 +15835,7 @@
         <v>21.20000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>9.090909090908989</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L299" t="n">
         <v>15.46</v>
@@ -15864,7 +15886,7 @@
         <v>21.30000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>27.27272727272696</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L300" t="n">
         <v>15.48</v>
@@ -15915,7 +15937,7 @@
         <v>21.30000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>19.99999999999979</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L301" t="n">
         <v>15.5</v>
@@ -15966,7 +15988,7 @@
         <v>21.40000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>27.27272727272696</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L302" t="n">
         <v>15.52</v>
@@ -16017,7 +16039,7 @@
         <v>21.50000000000001</v>
       </c>
       <c r="K303" t="n">
-        <v>16.66666666666647</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L303" t="n">
         <v>15.53</v>
@@ -16068,7 +16090,7 @@
         <v>21.60000000000002</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L304" t="n">
         <v>15.54</v>
@@ -16119,7 +16141,7 @@
         <v>21.70000000000002</v>
       </c>
       <c r="K305" t="n">
-        <v>27.27272727272688</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L305" t="n">
         <v>15.55999999999999</v>
@@ -16221,7 +16243,7 @@
         <v>21.80000000000002</v>
       </c>
       <c r="K307" t="n">
-        <v>39.99999999999929</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L307" t="n">
         <v>15.58999999999999</v>
@@ -16272,7 +16294,7 @@
         <v>21.90000000000002</v>
       </c>
       <c r="K308" t="n">
-        <v>19.99999999999964</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L308" t="n">
         <v>15.59999999999999</v>
@@ -16323,7 +16345,7 @@
         <v>22.00000000000002</v>
       </c>
       <c r="K309" t="n">
-        <v>27.27272727272679</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L309" t="n">
         <v>15.61999999999999</v>
@@ -16374,7 +16396,7 @@
         <v>22.10000000000002</v>
       </c>
       <c r="K310" t="n">
-        <v>33.33333333333289</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L310" t="n">
         <v>15.63999999999999</v>
@@ -16425,7 +16447,7 @@
         <v>22.20000000000002</v>
       </c>
       <c r="K311" t="n">
-        <v>38.46153846153791</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L311" t="n">
         <v>15.66999999999999</v>
@@ -16476,7 +16498,7 @@
         <v>22.30000000000003</v>
       </c>
       <c r="K312" t="n">
-        <v>38.46153846153791</v>
+        <v>49.99999999999933</v>
       </c>
       <c r="L312" t="n">
         <v>15.69999999999999</v>
@@ -16527,7 +16549,7 @@
         <v>22.30000000000003</v>
       </c>
       <c r="K313" t="n">
-        <v>38.46153846153791</v>
+        <v>71.42857142857041</v>
       </c>
       <c r="L313" t="n">
         <v>15.73999999999999</v>
@@ -16578,7 +16600,7 @@
         <v>22.40000000000003</v>
       </c>
       <c r="K314" t="n">
-        <v>38.46153846153791</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L314" t="n">
         <v>15.78</v>
@@ -16629,7 +16651,7 @@
         <v>22.50000000000003</v>
       </c>
       <c r="K315" t="n">
-        <v>28.57142857142819</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L315" t="n">
         <v>15.8</v>
@@ -16680,7 +16702,7 @@
         <v>22.50000000000003</v>
       </c>
       <c r="K316" t="n">
-        <v>23.0769230769228</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L316" t="n">
         <v>15.82</v>
@@ -16731,7 +16753,7 @@
         <v>22.60000000000003</v>
       </c>
       <c r="K317" t="n">
-        <v>28.57142857142819</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L317" t="n">
         <v>15.84</v>
@@ -16782,7 +16804,7 @@
         <v>22.80000000000003</v>
       </c>
       <c r="K318" t="n">
-        <v>12.49999999999978</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>15.85</v>
@@ -16833,7 +16855,7 @@
         <v>22.80000000000003</v>
       </c>
       <c r="K319" t="n">
-        <v>12.49999999999978</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L319" t="n">
         <v>15.85</v>
@@ -16884,7 +16906,7 @@
         <v>22.80000000000003</v>
       </c>
       <c r="K320" t="n">
-        <v>6.666666666666549</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L320" t="n">
         <v>15.84</v>
@@ -16935,7 +16957,7 @@
         <v>22.90000000000003</v>
       </c>
       <c r="K321" t="n">
-        <v>0</v>
+        <v>-66.66666666666578</v>
       </c>
       <c r="L321" t="n">
         <v>15.81</v>
@@ -16986,7 +17008,7 @@
         <v>23.00000000000004</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L322" t="n">
         <v>15.78</v>
@@ -17037,7 +17059,7 @@
         <v>23.10000000000004</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L323" t="n">
         <v>15.73999999999999</v>
@@ -17088,7 +17110,7 @@
         <v>23.20000000000004</v>
       </c>
       <c r="K324" t="n">
-        <v>12.49999999999978</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L324" t="n">
         <v>15.71999999999999</v>
@@ -17139,7 +17161,7 @@
         <v>23.30000000000004</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L325" t="n">
         <v>15.69999999999999</v>
@@ -17190,7 +17212,7 @@
         <v>23.30000000000004</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L326" t="n">
         <v>15.67999999999999</v>
@@ -17241,7 +17263,7 @@
         <v>23.40000000000004</v>
       </c>
       <c r="K327" t="n">
-        <v>-12.49999999999978</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L327" t="n">
         <v>15.63999999999999</v>
@@ -17292,7 +17314,7 @@
         <v>23.40000000000004</v>
       </c>
       <c r="K328" t="n">
-        <v>-6.666666666666549</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L328" t="n">
         <v>15.61999999999999</v>
@@ -17343,7 +17365,7 @@
         <v>23.40000000000004</v>
       </c>
       <c r="K329" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L329" t="n">
         <v>15.59999999999999</v>
@@ -17394,7 +17416,7 @@
         <v>23.60000000000004</v>
       </c>
       <c r="K330" t="n">
-        <v>-33.33333333333294</v>
+        <v>-42.85714285714231</v>
       </c>
       <c r="L330" t="n">
         <v>15.55999999999999</v>
@@ -17445,7 +17467,7 @@
         <v>23.60000000000004</v>
       </c>
       <c r="K331" t="n">
-        <v>-42.85714285714234</v>
+        <v>-66.66666666666588</v>
       </c>
       <c r="L331" t="n">
         <v>15.53</v>
@@ -17496,7 +17518,7 @@
         <v>23.80000000000004</v>
       </c>
       <c r="K332" t="n">
-        <v>-59.99999999999945</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L332" t="n">
         <v>15.47</v>
@@ -17547,7 +17569,7 @@
         <v>23.80000000000004</v>
       </c>
       <c r="K333" t="n">
-        <v>-59.99999999999945</v>
+        <v>-99.9999999999997</v>
       </c>
       <c r="L333" t="n">
         <v>15.42</v>
@@ -17598,7 +17620,7 @@
         <v>23.90000000000004</v>
       </c>
       <c r="K334" t="n">
-        <v>-46.66666666666629</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L334" t="n">
         <v>15.37</v>
@@ -17649,7 +17671,7 @@
         <v>23.90000000000004</v>
       </c>
       <c r="K335" t="n">
-        <v>-42.85714285714256</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L335" t="n">
         <v>15.32999999999999</v>
@@ -17700,7 +17722,7 @@
         <v>24.00000000000004</v>
       </c>
       <c r="K336" t="n">
-        <v>-33.33333333333302</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L336" t="n">
         <v>15.3</v>
@@ -17751,7 +17773,7 @@
         <v>24.10000000000004</v>
       </c>
       <c r="K337" t="n">
-        <v>-46.66666666666629</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L337" t="n">
         <v>15.27</v>
@@ -17802,7 +17824,7 @@
         <v>24.20000000000005</v>
       </c>
       <c r="K338" t="n">
-        <v>-42.85714285714243</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L338" t="n">
         <v>15.23</v>
@@ -17853,7 +17875,7 @@
         <v>24.30000000000005</v>
       </c>
       <c r="K339" t="n">
-        <v>-33.33333333333302</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L339" t="n">
         <v>15.19999999999999</v>
@@ -17904,7 +17926,7 @@
         <v>24.40000000000005</v>
       </c>
       <c r="K340" t="n">
-        <v>-24.99999999999967</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>15.19999999999999</v>
@@ -17955,7 +17977,7 @@
         <v>24.40000000000005</v>
       </c>
       <c r="K341" t="n">
-        <v>-19.99999999999974</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L341" t="n">
         <v>15.19999999999999</v>
@@ -18006,7 +18028,7 @@
         <v>24.40000000000005</v>
       </c>
       <c r="K342" t="n">
-        <v>-28.57142857142821</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L342" t="n">
         <v>15.22</v>
@@ -18057,7 +18079,7 @@
         <v>24.50000000000005</v>
       </c>
       <c r="K343" t="n">
-        <v>-14.28571428571411</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L343" t="n">
         <v>15.25</v>
@@ -18108,7 +18130,7 @@
         <v>24.60000000000005</v>
       </c>
       <c r="K344" t="n">
-        <v>-28.57142857142821</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L344" t="n">
         <v>15.26</v>
@@ -18159,7 +18181,7 @@
         <v>24.60000000000005</v>
       </c>
       <c r="K345" t="n">
-        <v>-23.07692307692279</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>15.27</v>
@@ -18210,7 +18232,7 @@
         <v>24.60000000000005</v>
       </c>
       <c r="K346" t="n">
-        <v>-23.07692307692279</v>
+        <v>20</v>
       </c>
       <c r="L346" t="n">
         <v>15.27</v>
@@ -18261,7 +18283,7 @@
         <v>24.60000000000005</v>
       </c>
       <c r="K347" t="n">
-        <v>-16.66666666666647</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L347" t="n">
         <v>15.28</v>
@@ -18312,7 +18334,7 @@
         <v>24.60000000000005</v>
       </c>
       <c r="K348" t="n">
-        <v>-16.66666666666647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L348" t="n">
         <v>15.30000000000001</v>
@@ -18363,7 +18385,7 @@
         <v>24.60000000000005</v>
       </c>
       <c r="K349" t="n">
-        <v>-16.66666666666647</v>
+        <v>0</v>
       </c>
       <c r="L349" t="n">
         <v>15.31000000000001</v>
@@ -18414,7 +18436,7 @@
         <v>24.70000000000005</v>
       </c>
       <c r="K350" t="n">
-        <v>9.090909090908958</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L350" t="n">
         <v>15.32000000000001</v>
@@ -18465,7 +18487,7 @@
         <v>24.80000000000005</v>
       </c>
       <c r="K351" t="n">
-        <v>16.66666666666642</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L351" t="n">
         <v>15.34000000000001</v>
@@ -18516,7 +18538,7 @@
         <v>24.80000000000005</v>
       </c>
       <c r="K352" t="n">
-        <v>39.99999999999947</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L352" t="n">
         <v>15.36</v>
@@ -18567,7 +18589,7 @@
         <v>24.90000000000006</v>
       </c>
       <c r="K353" t="n">
-        <v>45.45454545454481</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L353" t="n">
         <v>15.38</v>
@@ -18618,7 +18640,7 @@
         <v>25.00000000000006</v>
       </c>
       <c r="K354" t="n">
-        <v>27.27272727272695</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L354" t="n">
         <v>15.4</v>
@@ -18669,7 +18691,7 @@
         <v>25.10000000000006</v>
       </c>
       <c r="K355" t="n">
-        <v>33.33333333333289</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L355" t="n">
         <v>15.43</v>
@@ -18720,7 +18742,7 @@
         <v>25.10000000000006</v>
       </c>
       <c r="K356" t="n">
-        <v>27.27272727272679</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L356" t="n">
         <v>15.46</v>
@@ -18771,7 +18793,7 @@
         <v>25.20000000000006</v>
       </c>
       <c r="K357" t="n">
-        <v>45.45454545454481</v>
+        <v>66.66666666666549</v>
       </c>
       <c r="L357" t="n">
         <v>15.5</v>
@@ -18822,7 +18844,7 @@
         <v>25.40000000000006</v>
       </c>
       <c r="K358" t="n">
-        <v>33.33333333333299</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L358" t="n">
         <v>15.52</v>
@@ -18873,7 +18895,7 @@
         <v>25.50000000000006</v>
       </c>
       <c r="K359" t="n">
-        <v>16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>15.53</v>
@@ -18924,7 +18946,7 @@
         <v>25.70000000000006</v>
       </c>
       <c r="K360" t="n">
-        <v>23.07692307692286</v>
+        <v>11.11111111111104</v>
       </c>
       <c r="L360" t="n">
         <v>15.54999999999999</v>
@@ -18975,7 +18997,7 @@
         <v>25.90000000000006</v>
       </c>
       <c r="K361" t="n">
-        <v>33.33333333333318</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L361" t="n">
         <v>15.57999999999999</v>
@@ -19026,7 +19048,7 @@
         <v>26.00000000000006</v>
       </c>
       <c r="K362" t="n">
-        <v>24.99999999999978</v>
+        <v>9.090909090909047</v>
       </c>
       <c r="L362" t="n">
         <v>15.59999999999999</v>
@@ -19077,7 +19099,7 @@
         <v>26.10000000000006</v>
       </c>
       <c r="K363" t="n">
-        <v>24.99999999999989</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L363" t="n">
         <v>15.62</v>
@@ -19128,7 +19150,7 @@
         <v>26.20000000000006</v>
       </c>
       <c r="K364" t="n">
-        <v>37.49999999999978</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L364" t="n">
         <v>15.66</v>
@@ -19179,7 +19201,7 @@
         <v>26.40000000000006</v>
       </c>
       <c r="K365" t="n">
-        <v>22.222222222222</v>
+        <v>7.69230769230764</v>
       </c>
       <c r="L365" t="n">
         <v>15.67</v>
@@ -19230,7 +19252,7 @@
         <v>26.40000000000006</v>
       </c>
       <c r="K366" t="n">
-        <v>22.222222222222</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>15.68</v>
@@ -19281,7 +19303,7 @@
         <v>26.50000000000006</v>
       </c>
       <c r="K367" t="n">
-        <v>26.31578947368403</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L367" t="n">
         <v>15.69</v>
@@ -19332,7 +19354,7 @@
         <v>26.80000000000006</v>
       </c>
       <c r="K368" t="n">
-        <v>9.090909090909003</v>
+        <v>7.692307692307619</v>
       </c>
       <c r="L368" t="n">
         <v>15.69</v>
@@ -19383,7 +19405,7 @@
         <v>26.90000000000006</v>
       </c>
       <c r="K369" t="n">
-        <v>13.04347826086945</v>
+        <v>0</v>
       </c>
       <c r="L369" t="n">
         <v>15.71</v>
@@ -19434,7 +19456,7 @@
         <v>27.00000000000006</v>
       </c>
       <c r="K370" t="n">
-        <v>13.04347826086945</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L370" t="n">
         <v>15.72</v>
@@ -19485,7 +19507,7 @@
         <v>27.00000000000006</v>
       </c>
       <c r="K371" t="n">
-        <v>9.090909090909017</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>15.70999999999999</v>
@@ -19536,7 +19558,7 @@
         <v>27.10000000000007</v>
       </c>
       <c r="K372" t="n">
-        <v>13.04347826086953</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>15.72</v>
@@ -19587,7 +19609,7 @@
         <v>27.10000000000007</v>
       </c>
       <c r="K373" t="n">
-        <v>9.090909090909099</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L373" t="n">
         <v>15.72</v>
@@ -19638,7 +19660,7 @@
         <v>27.10000000000007</v>
       </c>
       <c r="K374" t="n">
-        <v>14.28571428571426</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L374" t="n">
         <v>15.71</v>
@@ -19689,7 +19711,7 @@
         <v>27.10000000000007</v>
       </c>
       <c r="K375" t="n">
-        <v>10.00000000000002</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L375" t="n">
         <v>15.72</v>
@@ -19740,7 +19762,7 @@
         <v>27.10000000000007</v>
       </c>
       <c r="K376" t="n">
-        <v>10.00000000000002</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>15.73</v>
@@ -19791,7 +19813,7 @@
         <v>27.10000000000007</v>
       </c>
       <c r="K377" t="n">
-        <v>5.263157894736901</v>
+        <v>100</v>
       </c>
       <c r="L377" t="n">
         <v>15.73</v>
@@ -19842,7 +19864,7 @@
         <v>27.10000000000007</v>
       </c>
       <c r="K378" t="n">
-        <v>17.64705882352939</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L378" t="n">
         <v>15.76</v>
@@ -19893,7 +19915,7 @@
         <v>27.20000000000007</v>
       </c>
       <c r="K379" t="n">
-        <v>17.64705882352925</v>
+        <v>0</v>
       </c>
       <c r="L379" t="n">
         <v>15.77</v>
@@ -19944,7 +19966,7 @@
         <v>27.30000000000007</v>
       </c>
       <c r="K380" t="n">
-        <v>12.49999999999997</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L380" t="n">
         <v>15.78</v>
@@ -19995,7 +20017,7 @@
         <v>27.50000000000007</v>
       </c>
       <c r="K381" t="n">
-        <v>12.49999999999986</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L381" t="n">
         <v>15.81000000000001</v>
@@ -20046,7 +20068,7 @@
         <v>27.80000000000007</v>
       </c>
       <c r="K382" t="n">
-        <v>33.3333333333332</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L382" t="n">
         <v>15.86</v>
@@ -20097,7 +20119,7 @@
         <v>27.90000000000007</v>
       </c>
       <c r="K383" t="n">
-        <v>22.222222222222</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L383" t="n">
         <v>15.9</v>
@@ -20148,7 +20170,7 @@
         <v>28.00000000000007</v>
       </c>
       <c r="K384" t="n">
-        <v>11.11111111111112</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L384" t="n">
         <v>15.93</v>
@@ -20199,7 +20221,7 @@
         <v>28.20000000000007</v>
       </c>
       <c r="K385" t="n">
-        <v>33.33333333333333</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L385" t="n">
         <v>15.98</v>
@@ -20250,7 +20272,7 @@
         <v>28.30000000000006</v>
       </c>
       <c r="K386" t="n">
-        <v>36.84210526315781</v>
+        <v>49.99999999999985</v>
       </c>
       <c r="L386" t="n">
         <v>16.04</v>
@@ -20301,7 +20323,7 @@
         <v>28.30000000000006</v>
       </c>
       <c r="K387" t="n">
-        <v>33.3333333333332</v>
+        <v>49.99999999999985</v>
       </c>
       <c r="L387" t="n">
         <v>16.1</v>
@@ -20352,7 +20374,7 @@
         <v>28.40000000000007</v>
       </c>
       <c r="K388" t="n">
-        <v>62.49999999999994</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L388" t="n">
         <v>16.17</v>
@@ -20403,7 +20425,7 @@
         <v>28.40000000000007</v>
       </c>
       <c r="K389" t="n">
-        <v>59.99999999999989</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L389" t="n">
         <v>16.25</v>
@@ -20454,7 +20476,7 @@
         <v>28.60000000000007</v>
       </c>
       <c r="K390" t="n">
-        <v>62.49999999999994</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L390" t="n">
         <v>16.34</v>
@@ -20505,7 +20527,7 @@
         <v>28.60000000000007</v>
       </c>
       <c r="K391" t="n">
-        <v>62.49999999999994</v>
+        <v>50</v>
       </c>
       <c r="L391" t="n">
         <v>16.41</v>
@@ -20556,7 +20578,7 @@
         <v>28.80000000000006</v>
       </c>
       <c r="K392" t="n">
-        <v>64.70588235294107</v>
+        <v>77.77777777777813</v>
       </c>
       <c r="L392" t="n">
         <v>16.47</v>
@@ -20607,7 +20629,7 @@
         <v>29.30000000000006</v>
       </c>
       <c r="K393" t="n">
-        <v>72.72727272727265</v>
+        <v>100</v>
       </c>
       <c r="L393" t="n">
         <v>16.59</v>
@@ -20658,7 +20680,7 @@
         <v>29.40000000000006</v>
       </c>
       <c r="K394" t="n">
-        <v>65.2173913043479</v>
+        <v>83.33333333333363</v>
       </c>
       <c r="L394" t="n">
         <v>16.71</v>
@@ -20709,7 +20731,7 @@
         <v>29.70000000000006</v>
       </c>
       <c r="K395" t="n">
-        <v>46.15384615384616</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L395" t="n">
         <v>16.78</v>
@@ -20760,7 +20782,7 @@
         <v>29.80000000000006</v>
       </c>
       <c r="K396" t="n">
-        <v>48.14814814814819</v>
+        <v>46.66666666666686</v>
       </c>
       <c r="L396" t="n">
         <v>16.85</v>
@@ -20811,7 +20833,7 @@
         <v>29.90000000000007</v>
       </c>
       <c r="K397" t="n">
-        <v>42.85714285714282</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L397" t="n">
         <v>16.91</v>
@@ -20862,7 +20884,7 @@
         <v>30.00000000000007</v>
       </c>
       <c r="K398" t="n">
-        <v>44.82758620689654</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L398" t="n">
         <v>16.97</v>
@@ -20913,7 +20935,7 @@
         <v>30.10000000000007</v>
       </c>
       <c r="K399" t="n">
-        <v>44.82758620689654</v>
+        <v>20</v>
       </c>
       <c r="L399" t="n">
         <v>17.02</v>
@@ -20964,7 +20986,7 @@
         <v>30.10000000000007</v>
       </c>
       <c r="K400" t="n">
-        <v>42.85714285714282</v>
+        <v>20</v>
       </c>
       <c r="L400" t="n">
         <v>17.05</v>
@@ -21015,7 +21037,7 @@
         <v>30.30000000000007</v>
       </c>
       <c r="K401" t="n">
-        <v>28.57142857142859</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L401" t="n">
         <v>17.06</v>
@@ -21066,7 +21088,7 @@
         <v>30.40000000000007</v>
       </c>
       <c r="K402" t="n">
-        <v>23.07692307692301</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L402" t="n">
         <v>17.06</v>
@@ -21117,7 +21139,7 @@
         <v>30.60000000000007</v>
       </c>
       <c r="K403" t="n">
-        <v>18.51851851851855</v>
+        <v>-50</v>
       </c>
       <c r="L403" t="n">
         <v>16.99</v>
@@ -21168,7 +21190,7 @@
         <v>30.80000000000006</v>
       </c>
       <c r="K404" t="n">
-        <v>28.5714285714285</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L404" t="n">
         <v>16.95</v>
@@ -21219,7 +21241,7 @@
         <v>30.90000000000007</v>
       </c>
       <c r="K405" t="n">
-        <v>25.92592592592591</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L405" t="n">
         <v>16.95</v>
@@ -21270,7 +21292,7 @@
         <v>31.00000000000007</v>
       </c>
       <c r="K406" t="n">
-        <v>18.5185185185185</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L406" t="n">
         <v>16.93</v>
@@ -21321,7 +21343,7 @@
         <v>31.30000000000007</v>
       </c>
       <c r="K407" t="n">
-        <v>26.66666666666666</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L407" t="n">
         <v>16.95</v>
@@ -21372,7 +21394,7 @@
         <v>31.50000000000007</v>
       </c>
       <c r="K408" t="n">
-        <v>16.12903225806451</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>16.94</v>
@@ -21423,7 +21445,7 @@
         <v>31.50000000000007</v>
       </c>
       <c r="K409" t="n">
-        <v>16.12903225806451</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>16.94</v>
@@ -21474,7 +21496,7 @@
         <v>31.70000000000007</v>
       </c>
       <c r="K410" t="n">
-        <v>3.225806451612947</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>16.92</v>
@@ -21525,7 +21547,7 @@
         <v>31.80000000000007</v>
       </c>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L411" t="n">
         <v>16.91</v>
@@ -21576,7 +21598,7 @@
         <v>32.00000000000007</v>
       </c>
       <c r="K412" t="n">
-        <v>0</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L412" t="n">
         <v>16.91</v>
@@ -21627,7 +21649,7 @@
         <v>32.10000000000007</v>
       </c>
       <c r="K413" t="n">
-        <v>-14.2857142857142</v>
+        <v>7.692307692307756</v>
       </c>
       <c r="L413" t="n">
         <v>16.94</v>
@@ -21678,7 +21700,7 @@
         <v>32.20000000000007</v>
       </c>
       <c r="K414" t="n">
-        <v>-14.2857142857143</v>
+        <v>-7.692307692307756</v>
       </c>
       <c r="L414" t="n">
         <v>16.94</v>
@@ -21729,7 +21751,7 @@
         <v>32.30000000000008</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>7.692307692307756</v>
       </c>
       <c r="L415" t="n">
         <v>16.94</v>
@@ -21780,7 +21802,7 @@
         <v>32.40000000000008</v>
       </c>
       <c r="K416" t="n">
-        <v>-7.692307692307766</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L416" t="n">
         <v>16.94</v>
@@ -21831,7 +21853,7 @@
         <v>32.70000000000007</v>
       </c>
       <c r="K417" t="n">
-        <v>-14.2857142857142</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L417" t="n">
         <v>16.88</v>
@@ -21882,7 +21904,7 @@
         <v>32.70000000000007</v>
       </c>
       <c r="K418" t="n">
-        <v>-18.51851851851848</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L418" t="n">
         <v>16.84</v>
@@ -21933,7 +21955,7 @@
         <v>32.80000000000008</v>
       </c>
       <c r="K419" t="n">
-        <v>-18.51851851851848</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L419" t="n">
         <v>16.79</v>
@@ -21984,7 +22006,7 @@
         <v>32.80000000000008</v>
       </c>
       <c r="K420" t="n">
-        <v>-18.51851851851848</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L420" t="n">
         <v>16.76</v>
@@ -22035,7 +22057,7 @@
         <v>32.90000000000008</v>
       </c>
       <c r="K421" t="n">
-        <v>-15.38461538461542</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L421" t="n">
         <v>16.73</v>
@@ -22086,7 +22108,7 @@
         <v>32.90000000000008</v>
       </c>
       <c r="K422" t="n">
-        <v>-19.99999999999991</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L422" t="n">
         <v>16.68</v>
@@ -22137,7 +22159,7 @@
         <v>33.00000000000008</v>
       </c>
       <c r="K423" t="n">
-        <v>-8.333333333333259</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L423" t="n">
         <v>16.63</v>
@@ -22188,7 +22210,7 @@
         <v>33.10000000000008</v>
       </c>
       <c r="K424" t="n">
-        <v>-13.04347826086936</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L424" t="n">
         <v>16.6</v>
@@ -22239,7 +22261,7 @@
         <v>33.20000000000008</v>
       </c>
       <c r="K425" t="n">
-        <v>-21.73913043478247</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L425" t="n">
         <v>16.55</v>
@@ -22290,7 +22312,7 @@
         <v>33.20000000000008</v>
       </c>
       <c r="K426" t="n">
-        <v>-18.18181818181801</v>
+        <v>-20</v>
       </c>
       <c r="L426" t="n">
         <v>16.51</v>
@@ -22341,7 +22363,7 @@
         <v>33.40000000000008</v>
       </c>
       <c r="K427" t="n">
-        <v>-23.80952380952371</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L427" t="n">
         <v>16.52</v>
@@ -22392,7 +22414,7 @@
         <v>33.40000000000008</v>
       </c>
       <c r="K428" t="n">
-        <v>-15.78947368421049</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L428" t="n">
         <v>16.52999999999999</v>
@@ -22443,7 +22465,7 @@
         <v>33.50000000000008</v>
       </c>
       <c r="K429" t="n">
-        <v>-9.999999999999911</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L429" t="n">
         <v>16.56</v>
@@ -22494,7 +22516,7 @@
         <v>33.60000000000008</v>
       </c>
       <c r="K430" t="n">
-        <v>-5.263157894736882</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L430" t="n">
         <v>16.57999999999999</v>
@@ -22545,7 +22567,7 @@
         <v>33.70000000000008</v>
       </c>
       <c r="K431" t="n">
-        <v>5.263157894736882</v>
+        <v>50</v>
       </c>
       <c r="L431" t="n">
         <v>16.62</v>
@@ -22596,7 +22618,7 @@
         <v>33.70000000000008</v>
       </c>
       <c r="K432" t="n">
-        <v>-5.882352941176311</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L432" t="n">
         <v>16.66</v>
@@ -22647,7 +22669,7 @@
         <v>33.80000000000008</v>
       </c>
       <c r="K433" t="n">
-        <v>-5.88235294117652</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L433" t="n">
         <v>16.7</v>
@@ -22698,7 +22720,7 @@
         <v>34.00000000000009</v>
       </c>
       <c r="K434" t="n">
-        <v>11.1111111111112</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L434" t="n">
         <v>16.75</v>
@@ -22749,7 +22771,7 @@
         <v>34.10000000000009</v>
       </c>
       <c r="K435" t="n">
-        <v>0</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L435" t="n">
         <v>16.8</v>
@@ -22800,7 +22822,7 @@
         <v>34.40000000000009</v>
       </c>
       <c r="K436" t="n">
-        <v>-9.999999999999893</v>
+        <v>0</v>
       </c>
       <c r="L436" t="n">
         <v>16.82</v>
@@ -22851,7 +22873,7 @@
         <v>34.40000000000009</v>
       </c>
       <c r="K437" t="n">
-        <v>5.882352941176286</v>
+        <v>0</v>
       </c>
       <c r="L437" t="n">
         <v>16.82</v>
@@ -22902,7 +22924,7 @@
         <v>34.60000000000009</v>
       </c>
       <c r="K438" t="n">
-        <v>15.78947368421021</v>
+        <v>9.090909090908768</v>
       </c>
       <c r="L438" t="n">
         <v>16.84</v>
@@ -22953,7 +22975,7 @@
         <v>34.8000000000001</v>
       </c>
       <c r="K439" t="n">
-        <v>9.999999999999858</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>16.82999999999999</v>
@@ -23004,7 +23026,7 @@
         <v>35.10000000000009</v>
       </c>
       <c r="K440" t="n">
-        <v>-4.347826086956549</v>
+        <v>-28.57142857142846</v>
       </c>
       <c r="L440" t="n">
         <v>16.8</v>
@@ -23055,7 +23077,7 @@
         <v>35.10000000000009</v>
       </c>
       <c r="K441" t="n">
-        <v>0</v>
+        <v>-28.57142857142846</v>
       </c>
       <c r="L441" t="n">
         <v>16.76</v>
@@ -23106,7 +23128,7 @@
         <v>35.10000000000009</v>
       </c>
       <c r="K442" t="n">
-        <v>0</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L442" t="n">
         <v>16.72</v>
@@ -23157,7 +23179,7 @@
         <v>35.20000000000009</v>
       </c>
       <c r="K443" t="n">
-        <v>-9.090909090909017</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L443" t="n">
         <v>16.66</v>
@@ -23208,7 +23230,7 @@
         <v>35.30000000000008</v>
       </c>
       <c r="K444" t="n">
-        <v>-9.090909090909207</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L444" t="n">
         <v>16.59</v>
@@ -23259,7 +23281,7 @@
         <v>35.30000000000008</v>
       </c>
       <c r="K445" t="n">
-        <v>-4.761904761904826</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L445" t="n">
         <v>16.53</v>
@@ -23310,7 +23332,7 @@
         <v>35.40000000000008</v>
       </c>
       <c r="K446" t="n">
-        <v>0</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L446" t="n">
         <v>16.51</v>
@@ -23361,7 +23383,7 @@
         <v>35.40000000000008</v>
       </c>
       <c r="K447" t="n">
-        <v>-9.999999999999929</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L447" t="n">
         <v>16.49</v>
@@ -23412,7 +23434,7 @@
         <v>35.60000000000008</v>
       </c>
       <c r="K448" t="n">
-        <v>-18.18181818181809</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L448" t="n">
         <v>16.43</v>
@@ -23463,7 +23485,7 @@
         <v>35.70000000000007</v>
       </c>
       <c r="K449" t="n">
-        <v>-18.18181818181831</v>
+        <v>0</v>
       </c>
       <c r="L449" t="n">
         <v>16.4</v>
@@ -23514,7 +23536,7 @@
         <v>35.80000000000007</v>
       </c>
       <c r="K450" t="n">
-        <v>-18.18181818181821</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L450" t="n">
         <v>16.39</v>
@@ -23565,7 +23587,7 @@
         <v>35.80000000000007</v>
       </c>
       <c r="K451" t="n">
-        <v>-23.80952380952396</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L451" t="n">
         <v>16.38</v>
@@ -23616,7 +23638,7 @@
         <v>35.90000000000006</v>
       </c>
       <c r="K452" t="n">
-        <v>-18.18181818181843</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L452" t="n">
         <v>16.38</v>
@@ -23667,7 +23689,7 @@
         <v>36.00000000000006</v>
       </c>
       <c r="K453" t="n">
-        <v>-18.18181818181827</v>
+        <v>14.28571428571487</v>
       </c>
       <c r="L453" t="n">
         <v>16.4</v>
@@ -23718,7 +23740,7 @@
         <v>36.10000000000007</v>
       </c>
       <c r="K454" t="n">
-        <v>-23.80952380952404</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L454" t="n">
         <v>16.42</v>
@@ -23769,7 +23791,7 @@
         <v>36.20000000000007</v>
       </c>
       <c r="K455" t="n">
-        <v>-23.80952380952404</v>
+        <v>0</v>
       </c>
       <c r="L455" t="n">
         <v>16.43</v>
@@ -23820,7 +23842,7 @@
         <v>36.20000000000007</v>
       </c>
       <c r="K456" t="n">
-        <v>-11.11111111111122</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>16.43</v>
@@ -23871,7 +23893,7 @@
         <v>36.20000000000007</v>
       </c>
       <c r="K457" t="n">
-        <v>-11.11111111111122</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L457" t="n">
         <v>16.43</v>
@@ -23922,7 +23944,7 @@
         <v>36.30000000000007</v>
       </c>
       <c r="K458" t="n">
-        <v>-29.4117647058828</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>16.44</v>
@@ -23973,7 +23995,7 @@
         <v>36.30000000000007</v>
       </c>
       <c r="K459" t="n">
-        <v>-20.00000000000043</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L459" t="n">
         <v>16.44</v>
@@ -24024,7 +24046,7 @@
         <v>36.30000000000007</v>
       </c>
       <c r="K460" t="n">
-        <v>0</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L460" t="n">
         <v>16.45</v>
@@ -24075,7 +24097,7 @@
         <v>36.40000000000006</v>
       </c>
       <c r="K461" t="n">
-        <v>-7.692307692307714</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L461" t="n">
         <v>16.45</v>
@@ -24126,7 +24148,7 @@
         <v>36.50000000000006</v>
       </c>
       <c r="K462" t="n">
-        <v>0</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L462" t="n">
         <v>16.45</v>
@@ -24177,7 +24199,7 @@
         <v>36.80000000000005</v>
       </c>
       <c r="K463" t="n">
-        <v>-12.50000000000022</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L463" t="n">
         <v>16.41</v>
@@ -24228,7 +24250,7 @@
         <v>36.80000000000005</v>
       </c>
       <c r="K464" t="n">
-        <v>-20.00000000000019</v>
+        <v>-66.66666666666785</v>
       </c>
       <c r="L464" t="n">
         <v>16.36</v>
@@ -24279,7 +24301,7 @@
         <v>36.90000000000006</v>
       </c>
       <c r="K465" t="n">
-        <v>-25.00000000000033</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L465" t="n">
         <v>16.31</v>
@@ -24330,7 +24352,7 @@
         <v>37.00000000000006</v>
       </c>
       <c r="K466" t="n">
-        <v>-25.00000000000033</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L466" t="n">
         <v>16.27</v>
@@ -24381,7 +24403,7 @@
         <v>37.00000000000006</v>
       </c>
       <c r="K467" t="n">
-        <v>-25.00000000000033</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L467" t="n">
         <v>16.23</v>
@@ -24432,7 +24454,7 @@
         <v>37.10000000000006</v>
       </c>
       <c r="K468" t="n">
-        <v>-20.00000000000033</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L468" t="n">
         <v>16.19</v>
@@ -24483,7 +24505,7 @@
         <v>37.10000000000006</v>
       </c>
       <c r="K469" t="n">
-        <v>-28.57142857142879</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L469" t="n">
         <v>16.15</v>
@@ -24534,7 +24556,7 @@
         <v>37.30000000000005</v>
       </c>
       <c r="K470" t="n">
-        <v>-6.666666666666825</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L470" t="n">
         <v>16.13</v>
@@ -24585,7 +24607,7 @@
         <v>37.60000000000005</v>
       </c>
       <c r="K471" t="n">
-        <v>-22.22222222222245</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L471" t="n">
         <v>16.09</v>
@@ -24636,7 +24658,7 @@
         <v>37.70000000000005</v>
       </c>
       <c r="K472" t="n">
-        <v>-33.3333333333334</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L472" t="n">
         <v>16.02999999999999</v>
@@ -24687,7 +24709,7 @@
         <v>37.70000000000005</v>
       </c>
       <c r="K473" t="n">
-        <v>-41.17647058823552</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L473" t="n">
         <v>16</v>
@@ -24738,7 +24760,7 @@
         <v>37.80000000000005</v>
       </c>
       <c r="K474" t="n">
-        <v>-52.94117647058872</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L474" t="n">
         <v>15.96</v>
@@ -24789,7 +24811,7 @@
         <v>37.90000000000006</v>
       </c>
       <c r="K475" t="n">
-        <v>-41.17647058823552</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L475" t="n">
         <v>15.94</v>
@@ -24840,7 +24862,7 @@
         <v>37.90000000000006</v>
       </c>
       <c r="K476" t="n">
-        <v>-41.17647058823552</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L476" t="n">
         <v>15.91</v>
@@ -24891,7 +24913,7 @@
         <v>38.00000000000006</v>
       </c>
       <c r="K477" t="n">
-        <v>-33.3333333333335</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L477" t="n">
         <v>15.89</v>
@@ -24942,7 +24964,7 @@
         <v>38.00000000000006</v>
       </c>
       <c r="K478" t="n">
-        <v>-29.41176470588244</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L478" t="n">
         <v>15.88</v>
@@ -24993,7 +25015,7 @@
         <v>38.10000000000006</v>
       </c>
       <c r="K479" t="n">
-        <v>-22.22222222222226</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L479" t="n">
         <v>15.88</v>
@@ -25044,7 +25066,7 @@
         <v>38.10000000000006</v>
       </c>
       <c r="K480" t="n">
-        <v>-22.22222222222226</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L480" t="n">
         <v>15.86</v>
@@ -25095,7 +25117,7 @@
         <v>38.10000000000006</v>
       </c>
       <c r="K481" t="n">
-        <v>-17.6470588235295</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L481" t="n">
         <v>15.87</v>
@@ -25146,7 +25168,7 @@
         <v>38.10000000000006</v>
       </c>
       <c r="K482" t="n">
-        <v>-24.99999999999989</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L482" t="n">
         <v>15.89</v>
@@ -25197,7 +25219,7 @@
         <v>38.10000000000006</v>
       </c>
       <c r="K483" t="n">
-        <v>-7.692307692307776</v>
+        <v>99.99999999999881</v>
       </c>
       <c r="L483" t="n">
         <v>15.91</v>
@@ -25248,7 +25270,7 @@
         <v>38.10000000000006</v>
       </c>
       <c r="K484" t="n">
-        <v>-7.692307692307776</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L484" t="n">
         <v>15.94</v>
@@ -25299,7 +25321,7 @@
         <v>38.20000000000006</v>
       </c>
       <c r="K485" t="n">
-        <v>7.692307692307776</v>
+        <v>99.99999999999881</v>
       </c>
       <c r="L485" t="n">
         <v>15.97</v>
@@ -25350,7 +25372,7 @@
         <v>38.20000000000006</v>
       </c>
       <c r="K486" t="n">
-        <v>0</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L486" t="n">
         <v>16</v>
@@ -25401,7 +25423,7 @@
         <v>38.20000000000006</v>
       </c>
       <c r="K487" t="n">
-        <v>0</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L487" t="n">
         <v>16.02</v>
@@ -25452,7 +25474,7 @@
         <v>38.50000000000006</v>
       </c>
       <c r="K488" t="n">
-        <v>-14.28571428571425</v>
+        <v>-50</v>
       </c>
       <c r="L488" t="n">
         <v>16.01</v>
@@ -25503,7 +25525,7 @@
         <v>38.60000000000006</v>
       </c>
       <c r="K489" t="n">
-        <v>-20.00000000000005</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L489" t="n">
         <v>15.98</v>
@@ -25554,7 +25576,7 @@
         <v>38.70000000000006</v>
       </c>
       <c r="K490" t="n">
-        <v>-28.57142857142835</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L490" t="n">
         <v>15.96</v>
@@ -25605,7 +25627,7 @@
         <v>38.70000000000006</v>
       </c>
       <c r="K491" t="n">
-        <v>-9.090909090908989</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L491" t="n">
         <v>15.94</v>
@@ -25656,7 +25678,7 @@
         <v>38.70000000000006</v>
       </c>
       <c r="K492" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L492" t="n">
         <v>15.92</v>
@@ -25707,7 +25729,7 @@
         <v>38.70000000000006</v>
       </c>
       <c r="K493" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L493" t="n">
         <v>15.9</v>
@@ -25758,7 +25780,7 @@
         <v>38.80000000000006</v>
       </c>
       <c r="K494" t="n">
-        <v>19.99999999999996</v>
+        <v>-33.33333333333343</v>
       </c>
       <c r="L494" t="n">
         <v>15.89</v>
@@ -25809,7 +25831,7 @@
         <v>38.80000000000006</v>
       </c>
       <c r="K495" t="n">
-        <v>11.111111111111</v>
+        <v>-33.33333333333343</v>
       </c>
       <c r="L495" t="n">
         <v>15.87</v>
@@ -25860,7 +25882,7 @@
         <v>38.90000000000006</v>
       </c>
       <c r="K496" t="n">
-        <v>0</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L496" t="n">
         <v>15.84</v>
@@ -25911,7 +25933,7 @@
         <v>39.00000000000006</v>
       </c>
       <c r="K497" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L497" t="n">
         <v>15.82</v>
@@ -25962,7 +25984,7 @@
         <v>39.00000000000006</v>
       </c>
       <c r="K498" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L498" t="n">
         <v>15.83</v>
@@ -26013,7 +26035,7 @@
         <v>39.00000000000006</v>
       </c>
       <c r="K499" t="n">
-        <v>-11.111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L499" t="n">
         <v>15.85</v>
@@ -26064,7 +26086,7 @@
         <v>39.00000000000006</v>
       </c>
       <c r="K500" t="n">
-        <v>-11.111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L500" t="n">
         <v>15.86</v>
@@ -26115,7 +26137,7 @@
         <v>39.00000000000006</v>
       </c>
       <c r="K501" t="n">
-        <v>-11.111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L501" t="n">
         <v>15.87</v>
@@ -26166,7 +26188,7 @@
         <v>39.00000000000006</v>
       </c>
       <c r="K502" t="n">
-        <v>-11.111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L502" t="n">
         <v>15.88</v>
@@ -26217,7 +26239,7 @@
         <v>39.10000000000007</v>
       </c>
       <c r="K503" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L503" t="n">
         <v>15.9</v>
@@ -26268,7 +26290,7 @@
         <v>39.10000000000007</v>
       </c>
       <c r="K504" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L504" t="n">
         <v>15.91</v>
@@ -26319,7 +26341,7 @@
         <v>39.10000000000007</v>
       </c>
       <c r="K505" t="n">
-        <v>-11.1111111111112</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L505" t="n">
         <v>15.92</v>
@@ -26370,7 +26392,7 @@
         <v>39.30000000000007</v>
       </c>
       <c r="K506" t="n">
-        <v>-27.27272727272713</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L506" t="n">
         <v>15.92</v>
@@ -26421,7 +26443,7 @@
         <v>39.50000000000007</v>
       </c>
       <c r="K507" t="n">
-        <v>-7.692307692307734</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L507" t="n">
         <v>15.93</v>
@@ -26523,7 +26545,7 @@
         <v>39.50000000000007</v>
       </c>
       <c r="K509" t="n">
-        <v>33.33333333333294</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L509" t="n">
         <v>15.95</v>
@@ -26574,7 +26596,7 @@
         <v>39.60000000000007</v>
       </c>
       <c r="K510" t="n">
-        <v>33.33333333333294</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L510" t="n">
         <v>15.97</v>
@@ -26625,7 +26647,7 @@
         <v>39.60000000000007</v>
       </c>
       <c r="K511" t="n">
-        <v>33.33333333333294</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L511" t="n">
         <v>15.99</v>
@@ -26676,7 +26698,7 @@
         <v>39.60000000000007</v>
       </c>
       <c r="K512" t="n">
-        <v>33.33333333333294</v>
+        <v>20</v>
       </c>
       <c r="L512" t="n">
         <v>16.01</v>

--- a/BackTest/2019-11-02 BackTest RNT.xlsx
+++ b/BackTest/2019-11-02 BackTest RNT.xlsx
@@ -451,20 +451,14 @@
         <v>14.09333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>14</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>14.08666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>14</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>14.07999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>14.07333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>14.065</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>14.05666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>14.05333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>14</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>14.055</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>14.06333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>14.07333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>14.08166666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>14.09333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>14.105</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -991,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1030,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1069,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1108,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1147,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1186,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1225,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1264,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1303,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1381,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1420,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1459,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1498,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1537,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1576,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1615,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1654,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1693,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1732,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1810,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1849,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1888,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1927,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1966,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2005,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2044,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2083,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2122,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2161,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2239,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2278,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2317,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2356,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2395,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2434,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2473,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2512,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2551,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2590,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2668,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2707,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2746,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2785,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2824,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2863,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2902,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2941,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2980,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3019,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3097,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3136,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3175,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3214,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3253,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3292,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3331,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3370,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3409,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3448,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3526,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3565,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3604,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3643,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3682,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3721,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3799,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3838,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3877,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3955,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3994,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4033,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4072,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4111,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4150,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4189,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4228,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4267,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4306,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4384,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4423,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4462,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4501,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4533,16 +4091,18 @@
         <v>14.97666666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>15</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M106" t="n">
@@ -4650,12 +4210,14 @@
         <v>14.98666666666666</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -5235,12 +4797,14 @@
         <v>14.86333333333333</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -5274,12 +4838,14 @@
         <v>14.85333333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -5313,12 +4879,14 @@
         <v>14.84666666666666</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -5352,12 +4920,14 @@
         <v>14.83999999999999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -5391,12 +4961,14 @@
         <v>14.83166666666666</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -6054,12 +5626,14 @@
         <v>14.73</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -6132,12 +5706,14 @@
         <v>14.71833333333334</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -6171,12 +5747,14 @@
         <v>14.71166666666667</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -6210,12 +5788,14 @@
         <v>14.70500000000001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -6249,12 +5829,14 @@
         <v>14.70000000000001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -6288,12 +5870,14 @@
         <v>14.69166666666667</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -6327,12 +5911,14 @@
         <v>14.68666666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -6366,12 +5952,14 @@
         <v>14.67833333333334</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -6405,12 +5993,14 @@
         <v>14.67166666666667</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -6444,12 +6034,14 @@
         <v>14.66666666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6483,12 +6075,14 @@
         <v>14.66000000000001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -6522,12 +6116,14 @@
         <v>14.65666666666667</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6561,12 +6157,14 @@
         <v>14.65000000000001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6600,12 +6198,14 @@
         <v>14.64500000000001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6678,12 +6278,14 @@
         <v>14.62833333333334</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6717,12 +6319,14 @@
         <v>14.61833333333334</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6756,12 +6360,14 @@
         <v>14.60666666666667</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>14.3</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6795,12 +6401,14 @@
         <v>14.59833333333334</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>14.3</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6834,12 +6442,14 @@
         <v>14.59000000000001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6873,12 +6483,14 @@
         <v>14.58333333333334</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6912,12 +6524,14 @@
         <v>14.58000000000001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6951,12 +6565,14 @@
         <v>14.57500000000001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6990,12 +6606,14 @@
         <v>14.57166666666667</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -7029,12 +6647,14 @@
         <v>14.56833333333334</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -15456,16 +15076,18 @@
         <v>0</v>
       </c>
       <c r="I386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M386" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -15493,11 +15115,15 @@
         <v>0</v>
       </c>
       <c r="I387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15528,11 +15154,15 @@
         <v>0</v>
       </c>
       <c r="I388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15563,11 +15193,15 @@
         <v>0</v>
       </c>
       <c r="I389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +15232,15 @@
         <v>0</v>
       </c>
       <c r="I390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15637,7 +15275,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15672,7 +15314,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15707,7 +15353,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15742,7 +15392,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15773,14 +15427,16 @@
         <v>0</v>
       </c>
       <c r="I395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
-      <c r="M395" t="n">
-        <v>1</v>
-      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -15808,7 +15464,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
@@ -15843,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest RNT.xlsx
+++ b/BackTest/2019-11-02 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-398009.1825999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-398009.1825999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14.3</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-398009.1825999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-397470.3631555555</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -682,10 +702,14 @@
         <v>-445075.4915555555</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +739,19 @@
         <v>-529062.6834555555</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +780,19 @@
         <v>-529062.6834555555</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +821,19 @@
         <v>-641734.2014555555</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +862,19 @@
         <v>-966083.6826555554</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,15 +903,19 @@
         <v>-966083.6826555554</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>13.7</v>
       </c>
       <c r="J14" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,17 +944,17 @@
         <v>-966072.6826555554</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>13.7</v>
       </c>
       <c r="J15" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -925,17 +985,17 @@
         <v>-983890.9090555555</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>14.2</v>
       </c>
       <c r="J16" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -966,7 +1026,7 @@
         <v>-983879.9090555555</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>14</v>
@@ -974,7 +1034,11 @@
       <c r="J17" t="n">
         <v>14</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1003,7 +1067,7 @@
         <v>-983879.9090555555</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>14.1</v>
@@ -1013,7 +1077,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1044,7 +1108,7 @@
         <v>-902291.9090555555</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>14.1</v>
@@ -1054,7 +1118,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1085,7 +1149,7 @@
         <v>-716165.5583555554</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>14.2</v>
@@ -1095,7 +1159,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1126,7 +1190,7 @@
         <v>-713095.5583555554</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>14.3</v>
@@ -1167,9 +1231,11 @@
         <v>-717293.8012555554</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J22" t="n">
         <v>14</v>
       </c>
@@ -1206,9 +1272,11 @@
         <v>-736040.7228555554</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14.2</v>
+      </c>
       <c r="J23" t="n">
         <v>14</v>
       </c>
@@ -1245,9 +1313,11 @@
         <v>-736040.7228555554</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J24" t="n">
         <v>14</v>
       </c>
@@ -1284,9 +1354,11 @@
         <v>-740924.0747555554</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J25" t="n">
         <v>14</v>
       </c>
@@ -1323,9 +1395,11 @@
         <v>-728844.0747555554</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14</v>
+      </c>
       <c r="J26" t="n">
         <v>14</v>
       </c>
@@ -1362,9 +1436,11 @@
         <v>-724800.0747555554</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J27" t="n">
         <v>14</v>
       </c>
@@ -1401,9 +1477,11 @@
         <v>-727345.2718555554</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J28" t="n">
         <v>14</v>
       </c>
@@ -1440,9 +1518,11 @@
         <v>-728640.0747555554</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J29" t="n">
         <v>14</v>
       </c>
@@ -1479,9 +1559,11 @@
         <v>-649326.5327555554</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14</v>
+      </c>
       <c r="J30" t="n">
         <v>14</v>
       </c>
@@ -1518,9 +1600,11 @@
         <v>-649315.5327555554</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J31" t="n">
         <v>14</v>
       </c>
@@ -1557,7 +1641,7 @@
         <v>-649315.5327555554</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>14.4</v>
@@ -1598,9 +1682,11 @@
         <v>-827622.5341555553</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J33" t="n">
         <v>14</v>
       </c>
@@ -1637,9 +1723,11 @@
         <v>-827611.5341555553</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>14.2</v>
+      </c>
       <c r="J34" t="n">
         <v>14</v>
       </c>
@@ -1676,9 +1764,11 @@
         <v>-758174.3118652105</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J35" t="n">
         <v>14</v>
       </c>
@@ -1715,9 +1805,11 @@
         <v>-965036.9451652105</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J36" t="n">
         <v>14</v>
       </c>
@@ -1754,9 +1846,11 @@
         <v>-965036.9451652105</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J37" t="n">
         <v>14</v>
       </c>
@@ -1793,9 +1887,11 @@
         <v>-965036.9451652105</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J38" t="n">
         <v>14</v>
       </c>
@@ -1832,9 +1928,11 @@
         <v>-1009061.376265211</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J39" t="n">
         <v>14</v>
       </c>
@@ -1871,9 +1969,11 @@
         <v>-1146377.20196521</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J40" t="n">
         <v>14</v>
       </c>
@@ -1910,9 +2010,11 @@
         <v>-1146377.20196521</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14</v>
+      </c>
       <c r="J41" t="n">
         <v>14</v>
       </c>
@@ -1949,9 +2051,11 @@
         <v>-1181423.88526521</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14</v>
+      </c>
       <c r="J42" t="n">
         <v>14</v>
       </c>
@@ -1988,9 +2092,11 @@
         <v>-1092484.16886521</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J43" t="n">
         <v>14</v>
       </c>
@@ -2027,9 +2133,11 @@
         <v>-1160846.24896521</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>14</v>
+      </c>
       <c r="J44" t="n">
         <v>14</v>
       </c>
@@ -2066,9 +2174,11 @@
         <v>-1160846.24896521</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J45" t="n">
         <v>14</v>
       </c>
@@ -2105,9 +2215,11 @@
         <v>-1168826.38326521</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J46" t="n">
         <v>14</v>
       </c>
@@ -2144,7 +2256,7 @@
         <v>-1168816.38326521</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>13.8</v>
@@ -2185,9 +2297,11 @@
         <v>-1172476.62516521</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14.2</v>
+      </c>
       <c r="J48" t="n">
         <v>14</v>
       </c>
@@ -2224,9 +2338,11 @@
         <v>-1239653.80626521</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>14</v>
+      </c>
       <c r="J49" t="n">
         <v>14</v>
       </c>
@@ -2263,9 +2379,11 @@
         <v>-1239653.80626521</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J50" t="n">
         <v>14</v>
       </c>
@@ -2302,9 +2420,11 @@
         <v>-1201598.93226521</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J51" t="n">
         <v>14</v>
       </c>
@@ -2341,9 +2461,11 @@
         <v>-1205397.20506521</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J52" t="n">
         <v>14</v>
       </c>
@@ -2380,9 +2502,11 @@
         <v>-1205386.20506521</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J53" t="n">
         <v>14</v>
       </c>
@@ -2419,9 +2543,11 @@
         <v>-1205386.20506521</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J54" t="n">
         <v>14</v>
       </c>
@@ -2458,9 +2584,11 @@
         <v>-1018621.28396521</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J55" t="n">
         <v>14</v>
       </c>
@@ -2497,9 +2625,11 @@
         <v>-1088416.22686521</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J56" t="n">
         <v>14</v>
       </c>
@@ -2536,9 +2666,11 @@
         <v>-1078901.82976521</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14</v>
+      </c>
       <c r="J57" t="n">
         <v>14</v>
       </c>
@@ -2575,9 +2707,11 @@
         <v>-1078901.82976521</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J58" t="n">
         <v>14</v>
       </c>
@@ -2614,9 +2748,11 @@
         <v>-1078901.82976521</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J59" t="n">
         <v>14</v>
       </c>
@@ -2653,9 +2789,11 @@
         <v>-1160707.98206521</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J60" t="n">
         <v>14</v>
       </c>
@@ -2692,7 +2830,7 @@
         <v>-1153897.98206521</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>14</v>
@@ -2733,9 +2871,11 @@
         <v>-1264416.58606521</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J62" t="n">
         <v>14</v>
       </c>
@@ -2772,7 +2912,7 @@
         <v>-1264416.58606521</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>13.9</v>
@@ -2813,7 +2953,7 @@
         <v>-1264416.58606521</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>13.9</v>
@@ -2854,9 +2994,11 @@
         <v>-1264416.58606521</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J65" t="n">
         <v>14</v>
       </c>
@@ -2893,9 +3035,11 @@
         <v>-1264416.58606521</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J66" t="n">
         <v>14</v>
       </c>
@@ -2932,9 +3076,11 @@
         <v>-1251089.49276521</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J67" t="n">
         <v>14</v>
       </c>
@@ -2971,7 +3117,7 @@
         <v>-1052027.00956521</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>14</v>
@@ -3012,7 +3158,7 @@
         <v>-749180.0906652103</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>14.1</v>
@@ -3053,7 +3199,7 @@
         <v>-749180.0906652103</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>14.5</v>
@@ -3094,9 +3240,11 @@
         <v>-863550.0906652103</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J71" t="n">
         <v>14</v>
       </c>
@@ -3133,7 +3281,7 @@
         <v>-862550.0906652103</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>14.4</v>
@@ -3174,9 +3322,11 @@
         <v>-862555.0906652103</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J73" t="n">
         <v>14</v>
       </c>
@@ -3291,9 +3441,11 @@
         <v>-774684.104655555</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J76" t="n">
         <v>14</v>
       </c>
@@ -4227,9 +4379,11 @@
         <v>-851462.6581725619</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J100" t="n">
         <v>14</v>
       </c>
@@ -4266,9 +4420,11 @@
         <v>-847757.6241725619</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J101" t="n">
         <v>14</v>
       </c>
@@ -4383,9 +4539,11 @@
         <v>-852670.5988725618</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J104" t="n">
         <v>14</v>
       </c>
@@ -5631,7 +5789,7 @@
         <v>-1046243.869140983</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
@@ -7308,9 +7466,11 @@
         <v>-2912828.834699596</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J179" t="n">
         <v>14</v>
       </c>
@@ -7464,9 +7624,11 @@
         <v>-2945061.449799595</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J183" t="n">
         <v>14</v>
       </c>
@@ -7932,9 +8094,11 @@
         <v>-3378315.879590752</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J195" t="n">
         <v>14</v>
       </c>
@@ -7971,9 +8135,11 @@
         <v>-3378305.879590752</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J196" t="n">
         <v>14</v>
       </c>
@@ -8010,9 +8176,11 @@
         <v>-3378305.879590752</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J197" t="n">
         <v>14</v>
       </c>
@@ -8127,9 +8295,11 @@
         <v>-3442204.768690752</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J200" t="n">
         <v>14</v>
       </c>
@@ -8166,9 +8336,11 @@
         <v>-3432575.624096194</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J201" t="n">
         <v>14</v>
       </c>
@@ -8205,9 +8377,11 @@
         <v>-3462575.624096194</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J202" t="n">
         <v>14</v>
       </c>
@@ -8244,9 +8418,11 @@
         <v>-3462103.257496194</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J203" t="n">
         <v>14</v>
       </c>
@@ -8283,9 +8459,11 @@
         <v>-3462103.257496194</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J204" t="n">
         <v>14</v>
       </c>
@@ -8322,9 +8500,11 @@
         <v>-3539711.580296194</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J205" t="n">
         <v>14</v>
       </c>
@@ -8361,9 +8541,11 @@
         <v>-3524840.792961948</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J206" t="n">
         <v>14</v>
       </c>
@@ -8400,9 +8582,11 @@
         <v>-3524840.792961948</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J207" t="n">
         <v>14</v>
       </c>
@@ -8439,9 +8623,11 @@
         <v>-3524840.792961948</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J208" t="n">
         <v>14</v>
       </c>
@@ -8478,9 +8664,11 @@
         <v>-3524840.792961948</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J209" t="n">
         <v>14</v>
       </c>
@@ -8556,9 +8744,11 @@
         <v>-3538068.527061948</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J211" t="n">
         <v>14</v>
       </c>
@@ -8595,9 +8785,11 @@
         <v>-3542569.311361948</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J212" t="n">
         <v>14</v>
       </c>
@@ -8634,9 +8826,11 @@
         <v>-3364908.402861948</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J213" t="n">
         <v>14</v>
       </c>
@@ -8673,9 +8867,11 @@
         <v>-3364908.402861948</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J214" t="n">
         <v>14</v>
       </c>
@@ -8712,9 +8908,11 @@
         <v>-3623272.556461948</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J215" t="n">
         <v>14</v>
       </c>
@@ -8751,9 +8949,11 @@
         <v>-3596252.861361947</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J216" t="n">
         <v>14</v>
       </c>
@@ -8790,9 +8990,11 @@
         <v>-3695826.902861947</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J217" t="n">
         <v>14</v>
       </c>
@@ -8829,9 +9031,11 @@
         <v>-3695826.902861947</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J218" t="n">
         <v>14</v>
       </c>
@@ -8868,9 +9072,11 @@
         <v>-3695826.902861947</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J219" t="n">
         <v>14</v>
       </c>
@@ -8907,9 +9113,11 @@
         <v>-3695826.902861947</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J220" t="n">
         <v>14</v>
       </c>
@@ -8946,9 +9154,11 @@
         <v>-3902903.027461947</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J221" t="n">
         <v>14</v>
       </c>
@@ -8985,9 +9195,11 @@
         <v>-3902903.027461947</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J222" t="n">
         <v>14</v>
       </c>
@@ -9024,9 +9236,11 @@
         <v>-3839963.880461948</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J223" t="n">
         <v>14</v>
       </c>
@@ -9063,9 +9277,11 @@
         <v>-3784920.419361948</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J224" t="n">
         <v>14</v>
       </c>
@@ -9102,9 +9318,11 @@
         <v>-3707568.384961948</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J225" t="n">
         <v>14</v>
       </c>
@@ -9141,9 +9359,11 @@
         <v>-3541179.323761948</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J226" t="n">
         <v>14</v>
       </c>
@@ -9219,9 +9439,11 @@
         <v>-3489188.857065349</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J228" t="n">
         <v>14</v>
       </c>
@@ -9414,9 +9636,11 @@
         <v>-3655149.23566535</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J233" t="n">
         <v>14</v>
       </c>
@@ -9453,9 +9677,11 @@
         <v>-3655149.23566535</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J234" t="n">
         <v>14</v>
       </c>
@@ -9492,9 +9718,11 @@
         <v>-3889632.45126535</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J235" t="n">
         <v>14</v>
       </c>
@@ -9531,9 +9759,11 @@
         <v>-3889632.45126535</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J236" t="n">
         <v>14</v>
       </c>
@@ -9570,9 +9800,11 @@
         <v>-3889632.45126535</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J237" t="n">
         <v>14</v>
       </c>
@@ -9609,9 +9841,11 @@
         <v>-3889622.45126535</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J238" t="n">
         <v>14</v>
       </c>
@@ -9648,9 +9882,11 @@
         <v>-3889622.45126535</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J239" t="n">
         <v>14</v>
       </c>
@@ -9687,9 +9923,11 @@
         <v>-3947622.45126535</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J240" t="n">
         <v>14</v>
       </c>
@@ -9726,9 +9964,11 @@
         <v>-3947622.45126535</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J241" t="n">
         <v>14</v>
       </c>
@@ -9765,9 +10005,11 @@
         <v>-3947622.45126535</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J242" t="n">
         <v>14</v>
       </c>
@@ -9804,9 +10046,11 @@
         <v>-3947622.45126535</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J243" t="n">
         <v>14</v>
       </c>
@@ -9843,9 +10087,11 @@
         <v>-3947622.45126535</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J244" t="n">
         <v>14</v>
       </c>
@@ -9882,9 +10128,11 @@
         <v>-3946671.15746535</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J245" t="n">
         <v>14</v>
       </c>
@@ -9921,9 +10169,11 @@
         <v>-3946671.15746535</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J246" t="n">
         <v>14</v>
       </c>
@@ -9960,9 +10210,11 @@
         <v>-3870937.26486535</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J247" t="n">
         <v>14</v>
       </c>
@@ -9999,9 +10251,11 @@
         <v>-3941171.74486535</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J248" t="n">
         <v>14</v>
       </c>
@@ -10038,9 +10292,11 @@
         <v>-3941171.74486535</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J249" t="n">
         <v>14</v>
       </c>
@@ -10077,9 +10333,11 @@
         <v>-3941171.74486535</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J250" t="n">
         <v>14</v>
       </c>
@@ -10116,9 +10374,11 @@
         <v>-3934064.77576535</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J251" t="n">
         <v>14</v>
       </c>
@@ -10155,9 +10415,11 @@
         <v>-3934064.77576535</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J252" t="n">
         <v>14</v>
       </c>
@@ -10194,9 +10456,11 @@
         <v>-3939064.77576535</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J253" t="n">
         <v>14</v>
       </c>
@@ -10233,9 +10497,11 @@
         <v>-3939064.77576535</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J254" t="n">
         <v>14</v>
       </c>
@@ -10272,9 +10538,11 @@
         <v>-3936502.13886535</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J255" t="n">
         <v>14</v>
       </c>
@@ -10311,9 +10579,11 @@
         <v>-3936502.13886535</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J256" t="n">
         <v>14</v>
       </c>
@@ -10350,9 +10620,11 @@
         <v>-3936502.13886535</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J257" t="n">
         <v>14</v>
       </c>
@@ -10662,9 +10934,11 @@
         <v>-3647434.393865351</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J265" t="n">
         <v>14</v>
       </c>
@@ -10701,7 +10975,7 @@
         <v>-3348222.23446535</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>14.9</v>
@@ -14837,7 +15111,7 @@
         <v>32732.15642764428</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
@@ -14845,15 +15119,13 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L372" t="n">
-        <v>1.137857142857143</v>
-      </c>
-      <c r="M372" t="n">
-        <v>1.051094890510949</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -14878,11 +15150,17 @@
         <v>-239443.0007723557</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>14</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14911,11 +15189,17 @@
         <v>-251155.3107723557</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>14</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14944,11 +15228,17 @@
         <v>-251155.3107723557</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>14</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14977,11 +15267,17 @@
         <v>-251145.3107723557</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>14</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15010,11 +15306,17 @@
         <v>-324710.3710723557</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>14</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15043,11 +15345,17 @@
         <v>-324710.3710723557</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>14</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15079,8 +15387,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>14</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15112,8 +15426,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>14</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15145,8 +15465,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>14</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15178,8 +15504,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>14</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15211,8 +15543,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>14</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15244,8 +15582,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>14</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15277,8 +15621,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>14</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15310,8 +15660,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>14</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15343,8 +15699,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>14</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15376,8 +15738,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>14</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15409,8 +15777,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>14</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15442,8 +15816,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>14</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15475,8 +15855,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>14</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15508,8 +15894,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>14</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15541,8 +15933,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>14</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15574,8 +15972,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>14</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15607,8 +16011,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>14</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15640,8 +16050,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>14</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15673,8 +16089,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>14</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15706,8 +16128,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>14</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15739,8 +16167,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>14</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15772,8 +16206,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>14</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15805,8 +16245,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>14</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15838,8 +16284,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>14</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15871,8 +16323,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>14</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15904,8 +16362,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>14</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15937,8 +16401,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>14</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15970,8 +16440,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>14</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16003,8 +16479,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>14</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16036,8 +16518,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>14</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16069,8 +16557,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>14</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16102,8 +16596,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>14</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16135,8 +16635,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>14</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16168,8 +16674,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>14</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16201,8 +16713,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>14</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16234,8 +16752,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>14</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16267,8 +16791,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>14</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16300,8 +16830,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>14</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16333,8 +16869,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>14</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16366,8 +16908,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>14</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16399,8 +16947,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>14</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16432,8 +16986,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>14</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16465,8 +17025,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>14</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16498,8 +17064,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>14</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16531,8 +17103,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>14</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16564,8 +17142,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>14</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16597,8 +17181,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>14</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16630,8 +17220,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>14</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16663,8 +17259,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>14</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16696,8 +17298,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>14</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16729,8 +17337,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>14</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16762,8 +17376,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>14</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16795,8 +17415,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>14</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16828,8 +17454,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>14</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16861,8 +17493,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>14</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16894,8 +17532,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>14</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16927,8 +17571,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>14</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16960,8 +17610,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>14</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16993,8 +17649,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>14</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17026,8 +17688,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>14</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17059,8 +17727,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>14</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17092,8 +17766,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>14</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17125,8 +17805,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>14</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17158,8 +17844,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>14</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17191,8 +17883,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>14</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17221,11 +17919,17 @@
         <v>1407261.477927644</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>14</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17254,11 +17958,17 @@
         <v>1480865.322127644</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>14</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17287,11 +17997,17 @@
         <v>1480865.322127644</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>14</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17320,11 +18036,17 @@
         <v>1789355.181527644</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>14</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17353,11 +18075,17 @@
         <v>1789355.181527644</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>14</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17386,11 +18114,17 @@
         <v>2546777.129527644</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>14</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17419,11 +18153,17 @@
         <v>2546777.129527644</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>14</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17452,11 +18192,17 @@
         <v>3322670.630527644</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>14</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17485,11 +18231,17 @@
         <v>4452269.873027644</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>14</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17518,11 +18270,17 @@
         <v>3252028.410827644</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>14</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17551,11 +18309,17 @@
         <v>2616470.631527644</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>14</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17584,11 +18348,17 @@
         <v>3004377.149027644</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>14</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17617,11 +18387,17 @@
         <v>2977736.258227644</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>14</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17650,11 +18426,17 @@
         <v>3068530.398427644</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>14</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17683,11 +18465,17 @@
         <v>2862311.29282725</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>14</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17716,11 +18504,17 @@
         <v>2862311.29282725</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>14</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17749,11 +18543,17 @@
         <v>2679106.10362725</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>14</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17782,15 +18582,23 @@
         <v>2738506.29882725</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>14</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
+        <v>1.202142857142857</v>
+      </c>
+      <c r="M461" t="n">
+        <v>1.035971223021583</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -17815,7 +18623,7 @@
         <v>2506780.396227249</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17848,7 +18656,7 @@
         <v>2756586.123244409</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17881,7 +18689,7 @@
         <v>2770001.32322725</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17914,7 +18722,7 @@
         <v>2606743.733415485</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17947,7 +18755,7 @@
         <v>2933283.73410372</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17980,7 +18788,7 @@
         <v>2763348.21050372</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18013,7 +18821,7 @@
         <v>2763348.21050372</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18046,7 +18854,7 @@
         <v>2665536.93200372</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18079,7 +18887,7 @@
         <v>2551596.30980372</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18112,7 +18920,7 @@
         <v>2551608.42090372</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18145,7 +18953,7 @@
         <v>2706654.52880372</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18178,7 +18986,7 @@
         <v>2687903.69990372</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18211,7 +19019,7 @@
         <v>2859466.85490372</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18244,7 +19052,7 @@
         <v>2729344.90230372</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18277,7 +19085,7 @@
         <v>2535961.86550372</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18310,7 +19118,7 @@
         <v>2535961.86550372</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18343,7 +19151,7 @@
         <v>2427602.43300372</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18376,7 +19184,7 @@
         <v>2427602.43300372</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18409,7 +19217,7 @@
         <v>2342921.80320372</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18442,7 +19250,7 @@
         <v>2342921.80320372</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18475,7 +19283,7 @@
         <v>2382484.31590372</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18508,7 +19316,7 @@
         <v>2387484.31590372</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18541,7 +19349,7 @@
         <v>2205650.47840372</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18574,7 +19382,7 @@
         <v>2205650.47840372</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18607,7 +19415,7 @@
         <v>2257149.81070372</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18673,7 +19481,7 @@
         <v>2265963.27610372</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18706,7 +19514,7 @@
         <v>2169809.43010372</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18739,7 +19547,7 @@
         <v>2226550.66410372</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18772,7 +19580,7 @@
         <v>2226550.66410372</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18805,7 +19613,7 @@
         <v>2323073.44370372</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18838,7 +19646,7 @@
         <v>2634599.7372891</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18871,7 +19679,7 @@
         <v>2589583.7667891</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18904,7 +19712,7 @@
         <v>2587409.8867891</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18937,7 +19745,7 @@
         <v>2587409.8867891</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18970,7 +19778,7 @@
         <v>2615115.5080891</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19003,7 +19811,7 @@
         <v>2565115.5080891</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19036,7 +19844,7 @@
         <v>2223113.7436891</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19069,7 +19877,7 @@
         <v>2223113.7436891</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19102,7 +19910,7 @@
         <v>2223113.7436891</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19135,7 +19943,7 @@
         <v>2170498.205562271</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19168,7 +19976,7 @@
         <v>2353753.570162271</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19201,7 +20009,7 @@
         <v>2353753.570162271</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19234,7 +20042,7 @@
         <v>2563367.143062271</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19267,7 +20075,7 @@
         <v>2563367.143062271</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19300,7 +20108,7 @@
         <v>2524242.288162271</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19333,7 +20141,7 @@
         <v>2689548.978362271</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19366,7 +20174,7 @@
         <v>2500639.269462271</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19399,7 +20207,7 @@
         <v>2500639.269462271</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19432,7 +20240,7 @@
         <v>2509438.702362271</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19465,7 +20273,7 @@
         <v>2767499.323562271</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19498,7 +20306,7 @@
         <v>2797101.190962271</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19531,7 +20339,7 @@
         <v>2747680.970262271</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19564,7 +20372,7 @@
         <v>2747680.970262271</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19597,7 +20405,7 @@
         <v>2747680.970262271</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19630,7 +20438,7 @@
         <v>2707566.012062271</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19663,7 +20471,7 @@
         <v>2707566.012062271</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19696,7 +20504,7 @@
         <v>2707566.012062271</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19729,7 +20537,7 @@
         <v>1950405.604862271</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19762,7 +20570,7 @@
         <v>1952547.929962271</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19795,7 +20603,7 @@
         <v>1439444.779862271</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19828,7 +20636,7 @@
         <v>1439444.779862271</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19861,7 +20669,7 @@
         <v>1306291.715762271</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19894,7 +20702,7 @@
         <v>1793144.591862271</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19927,7 +20735,7 @@
         <v>1793144.591862271</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19960,7 +20768,7 @@
         <v>1556302.793762271</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19993,7 +20801,7 @@
         <v>1556302.793762271</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20026,7 +20834,7 @@
         <v>1594712.428862271</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20059,7 +20867,7 @@
         <v>1509085.794062271</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20092,7 +20900,7 @@
         <v>1441116.281262271</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20125,7 +20933,7 @@
         <v>1441116.281262271</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20158,7 +20966,7 @@
         <v>586083.4069622708</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20191,7 +20999,7 @@
         <v>860435.2997622709</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20224,7 +21032,7 @@
         <v>860435.2997622709</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20257,7 +21065,7 @@
         <v>1118788.243762271</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20290,7 +21098,7 @@
         <v>1118788.243762271</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20323,7 +21131,7 @@
         <v>1126784.828762271</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20356,7 +21164,7 @@
         <v>1126784.828762271</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20389,7 +21197,7 @@
         <v>1126784.828762271</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20422,7 +21230,7 @@
         <v>1126784.828762271</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20455,7 +21263,7 @@
         <v>1126784.828762271</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20488,7 +21296,7 @@
         <v>1126784.828762271</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20521,7 +21329,7 @@
         <v>1224227.994662271</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20554,7 +21362,7 @@
         <v>1224227.994662271</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20587,7 +21395,7 @@
         <v>1224227.994662271</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -21060,6 +21868,6 @@
       <c r="M560" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest RNT.xlsx
+++ b/BackTest/2019-11-02 BackTest RNT.xlsx
@@ -7447,14 +7447,10 @@
         <v>-3364908.402861948</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J214" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
@@ -7487,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7523,19 +7513,11 @@
         <v>-3596252.861361947</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J216" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7567,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7603,19 +7579,11 @@
         <v>-3695826.902861947</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J218" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7650,13 +7618,9 @@
         <v>14.4</v>
       </c>
       <c r="J219" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>14.4</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7691,11 +7655,11 @@
         <v>14.4</v>
       </c>
       <c r="J220" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L220" t="n">
@@ -7732,11 +7696,11 @@
         <v>14.4</v>
       </c>
       <c r="J221" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L221" t="n">
@@ -7773,7 +7737,7 @@
         <v>14.3</v>
       </c>
       <c r="J222" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7814,7 +7778,7 @@
         <v>14.3</v>
       </c>
       <c r="J223" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -7855,7 +7819,7 @@
         <v>14.4</v>
       </c>
       <c r="J224" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -7896,7 +7860,7 @@
         <v>14.5</v>
       </c>
       <c r="J225" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -7937,7 +7901,7 @@
         <v>14.6</v>
       </c>
       <c r="J226" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -7972,11 +7936,13 @@
         <v>-3544395.293761948</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J227" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8011,11 +7977,13 @@
         <v>-3489188.857065349</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J228" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8050,11 +8018,13 @@
         <v>-3492404.82706535</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J229" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8089,11 +8059,13 @@
         <v>-3596305.69816535</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J230" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8128,11 +8100,13 @@
         <v>-3591011.73566535</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J231" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8167,11 +8141,13 @@
         <v>-3655149.23566535</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J232" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8206,11 +8182,13 @@
         <v>-3655149.23566535</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J233" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8245,11 +8223,13 @@
         <v>-3655149.23566535</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J234" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8290,7 +8270,7 @@
         <v>14.5</v>
       </c>
       <c r="J235" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8331,7 +8311,7 @@
         <v>14.3</v>
       </c>
       <c r="J236" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8372,7 +8352,7 @@
         <v>14.3</v>
       </c>
       <c r="J237" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8413,7 +8393,7 @@
         <v>14.3</v>
       </c>
       <c r="J238" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8454,7 +8434,7 @@
         <v>14.5</v>
       </c>
       <c r="J239" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8495,7 +8475,7 @@
         <v>14.5</v>
       </c>
       <c r="J240" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8536,7 +8516,7 @@
         <v>14.4</v>
       </c>
       <c r="J241" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8577,7 +8557,7 @@
         <v>14.4</v>
       </c>
       <c r="J242" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8618,7 +8598,7 @@
         <v>14.4</v>
       </c>
       <c r="J243" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8659,7 +8639,7 @@
         <v>14.4</v>
       </c>
       <c r="J244" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8700,7 +8680,7 @@
         <v>14.4</v>
       </c>
       <c r="J245" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8741,7 +8721,7 @@
         <v>14.5</v>
       </c>
       <c r="J246" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8782,7 +8762,7 @@
         <v>14.5</v>
       </c>
       <c r="J247" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8823,7 +8803,7 @@
         <v>14.6</v>
       </c>
       <c r="J248" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8864,7 +8844,7 @@
         <v>14.5</v>
       </c>
       <c r="J249" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8905,7 +8885,7 @@
         <v>14.5</v>
       </c>
       <c r="J250" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8946,7 +8926,7 @@
         <v>14.5</v>
       </c>
       <c r="J251" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8987,7 +8967,7 @@
         <v>14.7</v>
       </c>
       <c r="J252" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9028,7 +9008,7 @@
         <v>14.7</v>
       </c>
       <c r="J253" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9069,7 +9049,7 @@
         <v>14.5</v>
       </c>
       <c r="J254" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9110,7 +9090,7 @@
         <v>14.5</v>
       </c>
       <c r="J255" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9151,7 +9131,7 @@
         <v>14.6</v>
       </c>
       <c r="J256" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9192,7 +9172,7 @@
         <v>14.6</v>
       </c>
       <c r="J257" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9231,7 +9211,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9270,7 +9250,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9309,7 +9289,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9348,7 +9328,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9387,7 +9367,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9426,7 +9406,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9465,7 +9445,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9504,7 +9484,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9543,7 +9523,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9582,7 +9562,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9621,7 +9601,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9660,7 +9640,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9699,7 +9679,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9738,7 +9718,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9777,7 +9757,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9816,7 +9796,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9855,7 +9835,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9894,7 +9874,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9933,7 +9913,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9972,7 +9952,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10011,7 +9991,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10050,7 +10030,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10089,7 +10069,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10128,7 +10108,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10163,23 +10143,21 @@
         <v>750442.6936035936</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L282" t="n">
-        <v>1.084655172413793</v>
-      </c>
-      <c r="M282" t="n">
-        <v>1.138686131386861</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10204,11 +10182,17 @@
         <v>735518.0553035936</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10237,11 +10221,17 @@
         <v>408324.0877035937</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10270,11 +10260,17 @@
         <v>408324.0877035937</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10303,11 +10299,17 @@
         <v>504187.3766035936</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10336,11 +10338,17 @@
         <v>504187.3766035936</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10369,11 +10377,17 @@
         <v>504187.3766035936</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10402,11 +10416,17 @@
         <v>464789.8827035936</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10435,11 +10455,17 @@
         <v>636317.1001035937</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10468,11 +10494,17 @@
         <v>441782.7061035937</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10501,11 +10533,17 @@
         <v>441782.7061035937</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10534,11 +10572,17 @@
         <v>441782.7061035937</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10567,11 +10611,17 @@
         <v>454679.9886035937</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10600,11 +10650,17 @@
         <v>414072.9186035937</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10633,11 +10689,17 @@
         <v>468903.9280035936</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10666,11 +10728,17 @@
         <v>468903.9280035936</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10702,8 +10770,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10735,8 +10809,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10768,8 +10848,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10801,8 +10887,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10834,8 +10926,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10867,8 +10965,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10900,8 +11004,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10933,8 +11043,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10966,8 +11082,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10999,8 +11121,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11032,8 +11160,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11065,8 +11199,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11098,8 +11238,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11131,8 +11277,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11164,8 +11316,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11194,11 +11352,17 @@
         <v>393064.3290276441</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11227,11 +11391,17 @@
         <v>392875.7540276441</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11263,8 +11433,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11296,8 +11472,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11329,8 +11511,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11362,8 +11550,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11395,8 +11589,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11428,8 +11628,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11461,8 +11667,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11494,8 +11706,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11527,8 +11745,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11560,8 +11784,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11593,8 +11823,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11626,8 +11862,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11659,8 +11901,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11692,8 +11940,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11725,8 +11979,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11758,8 +12018,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11791,8 +12057,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11824,8 +12096,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11857,8 +12135,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11890,8 +12174,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11923,8 +12213,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11956,8 +12252,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11989,8 +12291,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12022,8 +12330,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12055,8 +12369,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12088,8 +12408,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12121,8 +12447,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12154,8 +12486,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12187,8 +12525,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12220,8 +12564,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12253,8 +12603,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12286,8 +12642,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12319,8 +12681,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12352,8 +12720,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12385,8 +12759,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12418,8 +12798,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12451,8 +12837,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12484,8 +12876,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12517,8 +12915,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12550,8 +12954,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12583,8 +12993,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12616,8 +13032,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12649,8 +13071,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12682,8 +13110,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12715,8 +13149,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12748,8 +13188,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12781,8 +13227,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12814,8 +13266,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12847,8 +13305,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12880,8 +13344,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12913,8 +13383,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12946,8 +13422,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12979,8 +13461,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13012,8 +13500,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13045,8 +13539,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13078,8 +13578,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13111,8 +13617,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13144,8 +13656,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13177,8 +13695,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13210,8 +13734,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13243,8 +13773,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13276,8 +13812,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13309,8 +13851,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13342,8 +13890,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13375,8 +13929,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13408,8 +13968,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13441,8 +14007,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13474,8 +14046,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13507,8 +14085,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13540,8 +14124,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13573,8 +14163,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13606,8 +14202,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13639,8 +14241,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13672,8 +14280,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13705,8 +14319,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13738,8 +14358,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13771,8 +14397,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13804,8 +14436,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13837,8 +14475,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13870,8 +14514,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13903,8 +14553,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13936,8 +14592,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13969,8 +14631,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14002,8 +14670,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14035,8 +14709,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14068,8 +14748,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14101,8 +14787,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14134,8 +14826,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14167,8 +14865,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14200,8 +14904,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14233,8 +14943,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14266,8 +14982,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14299,8 +15021,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14332,8 +15060,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14365,8 +15099,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14398,8 +15138,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14431,8 +15177,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14464,8 +15216,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14497,8 +15255,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14530,8 +15294,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14563,8 +15333,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14596,8 +15372,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14629,8 +15411,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14662,8 +15450,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14695,8 +15489,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14728,8 +15528,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14761,8 +15567,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14794,8 +15606,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14827,8 +15645,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14860,8 +15684,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14893,8 +15723,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14926,8 +15762,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14959,8 +15801,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14992,8 +15840,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15025,8 +15879,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15058,8 +15918,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15091,8 +15957,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15124,8 +15996,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15157,8 +16035,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15190,8 +16074,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15223,8 +16113,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15256,8 +16152,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15289,8 +16191,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15322,8 +16230,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15355,8 +16269,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15388,8 +16308,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15421,8 +16347,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15454,8 +16386,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15487,8 +16425,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15520,8 +16464,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15553,8 +16503,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15586,8 +16542,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15619,8 +16581,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15652,8 +16620,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15685,8 +16659,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15718,8 +16698,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15751,8 +16737,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15784,8 +16776,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15814,15 +16812,23 @@
         <v>3252028.410827644</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
+        <v>1.196388888888889</v>
+      </c>
+      <c r="M453" t="n">
+        <v>1.138686131386861</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -15847,7 +16853,7 @@
         <v>2616470.631527644</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15880,7 +16886,7 @@
         <v>3004377.149027644</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15913,7 +16919,7 @@
         <v>2977736.258227644</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15946,7 +16952,7 @@
         <v>3068530.398427644</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15979,7 +16985,7 @@
         <v>2862311.29282725</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16012,7 +17018,7 @@
         <v>2862311.29282725</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16045,7 +17051,7 @@
         <v>2679106.10362725</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16078,7 +17084,7 @@
         <v>2738506.29882725</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16111,7 +17117,7 @@
         <v>2506780.396227249</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16144,7 +17150,7 @@
         <v>2756586.123244409</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16177,7 +17183,7 @@
         <v>2770001.32322725</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16210,7 +17216,7 @@
         <v>2606743.733415485</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16243,7 +17249,7 @@
         <v>2933283.73410372</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16276,7 +17282,7 @@
         <v>2763348.21050372</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16309,7 +17315,7 @@
         <v>2763348.21050372</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16342,7 +17348,7 @@
         <v>2665536.93200372</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16375,7 +17381,7 @@
         <v>2551596.30980372</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16408,7 +17414,7 @@
         <v>2551608.42090372</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16441,7 +17447,7 @@
         <v>2706654.52880372</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16474,7 +17480,7 @@
         <v>2687903.69990372</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16507,7 +17513,7 @@
         <v>2859466.85490372</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16540,7 +17546,7 @@
         <v>2729344.90230372</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16573,7 +17579,7 @@
         <v>2535961.86550372</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16606,7 +17612,7 @@
         <v>2535961.86550372</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16639,7 +17645,7 @@
         <v>2427602.43300372</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16672,7 +17678,7 @@
         <v>2427602.43300372</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16705,7 +17711,7 @@
         <v>2342921.80320372</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16738,7 +17744,7 @@
         <v>2342921.80320372</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16771,7 +17777,7 @@
         <v>2382484.31590372</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16837,7 +17843,7 @@
         <v>2205650.47840372</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16969,7 +17975,7 @@
         <v>2265963.27610372</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17200,7 +18206,7 @@
         <v>2587409.8867891</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
